--- a/output/cruz roja.xlsx
+++ b/output/cruz roja.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="566">
   <si>
     <t>Pais-Año</t>
   </si>
@@ -22,25 +22,25 @@
     <t>ONU</t>
   </si>
   <si>
-    <t>Gross_National_Income</t>
+    <t>GDP</t>
   </si>
   <si>
     <t>Public_Grant</t>
   </si>
   <si>
-    <t>NGO_Country_Budget_Previous_Year</t>
+    <t>Budget_Previous_Year</t>
   </si>
   <si>
-    <t>Vision_ONGD_LatinAmerica</t>
+    <t>LatinAmerica</t>
   </si>
   <si>
-    <t>Vision_ONGD_Africa</t>
+    <t>Africa</t>
   </si>
   <si>
-    <t>Vision_ONGD_Confessional</t>
+    <t>Confessional</t>
   </si>
   <si>
-    <t>Vision_ONGD_Universal</t>
+    <t>Universal</t>
   </si>
   <si>
     <t>Public_Funds_MAE</t>
@@ -109,16 +109,16 @@
     <t>Voluntarios_Extranjero</t>
   </si>
   <si>
-    <t>Total_subvencion_en_el_Pais_y_Anyo</t>
+    <t>Donor_Aid_Budget</t>
   </si>
   <si>
-    <t>Total_Fondos</t>
+    <t>Total_Funds</t>
   </si>
   <si>
-    <t>Proporcion_Fondos_Privados</t>
+    <t>%_Private_Funds</t>
   </si>
   <si>
-    <t>Proporcion_Fondos_MAE</t>
+    <t>%_MAE_Funds</t>
   </si>
   <si>
     <t>Anyo_ONG</t>
@@ -130,7 +130,7 @@
     <t>Colony</t>
   </si>
   <si>
-    <t>Delegacion</t>
+    <t>Delegation</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -233,9 +233,6 @@
   </si>
   <si>
     <t>2009_corea del norte</t>
-  </si>
-  <si>
-    <t>..</t>
   </si>
   <si>
     <t>2009_corea del sur</t>
@@ -2197,7 +2194,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4290</v>
+        <v>4403.873446482281</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2319,7 +2316,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2880</v>
+        <v>2771.04675450926</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -2563,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4070</v>
+        <v>4043.14643519898</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -2685,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>29010</v>
+        <v>28440.07222230167</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2787,7 +2784,7 @@
         <v>1</v>
       </c>
       <c r="AL6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM6">
         <v>0</v>
@@ -2807,7 +2804,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>15840</v>
+        <v>16492.11679663043</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2909,7 +2906,7 @@
         <v>1</v>
       </c>
       <c r="AL7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM7">
         <v>0</v>
@@ -2929,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>6490</v>
+        <v>7854.952374701078</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -3051,7 +3048,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5520</v>
+        <v>5596.139681459835</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -3173,7 +3170,7 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>2820</v>
+        <v>2934.187009790061</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -3295,7 +3292,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>6720</v>
+        <v>7325.671099407297</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -3417,7 +3414,7 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>2620</v>
+        <v>2870.311589353206</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -3539,7 +3536,7 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>680</v>
+        <v>697.6889104500298</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -3641,7 +3638,7 @@
         <v>1</v>
       </c>
       <c r="AL13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM13">
         <v>1</v>
@@ -3661,7 +3658,7 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>1620</v>
+        <v>1873.394108966653</v>
       </c>
       <c r="D14">
         <v>396724</v>
@@ -3783,7 +3780,7 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>4320</v>
+        <v>4799.014355440212</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -3885,7 +3882,7 @@
         <v>1</v>
       </c>
       <c r="AL15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM15">
         <v>0</v>
@@ -3905,7 +3902,7 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>8820</v>
+        <v>8947.741473873051</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -4027,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>1380</v>
+        <v>1460.056109840828</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -4149,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>6800</v>
+        <v>7772.38875590225</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -4271,7 +4268,7 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>4940</v>
+        <v>5191.140356354663</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -4373,7 +4370,7 @@
         <v>1</v>
       </c>
       <c r="AL19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM19">
         <v>1</v>
@@ -4393,7 +4390,7 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>7800</v>
+        <v>9502.243585046588</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -4515,7 +4512,7 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>1620</v>
+        <v>1909.084588129339</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -4637,7 +4634,7 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>8320</v>
+        <v>10594.98659239237</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -4759,7 +4756,7 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>9950</v>
+        <v>12227.21453003286</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -4881,7 +4878,7 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5130</v>
+        <v>6128.19547247793</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -5003,7 +5000,7 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>4060</v>
+        <v>4547.50930098406</v>
       </c>
       <c r="D25">
         <v>190630</v>
@@ -5125,7 +5122,7 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>3450</v>
+        <v>3972.630273980753</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -5247,7 +5244,7 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>3970</v>
+        <v>4729.735976516416</v>
       </c>
       <c r="D27">
         <v>169522</v>
@@ -5369,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>8810</v>
+        <v>11155.84524560499</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -5491,7 +5488,7 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>10380</v>
+        <v>14239.03920301361</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -5613,7 +5610,7 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>3330</v>
+        <v>3137.346097749885</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -5735,7 +5732,7 @@
         <v>1</v>
       </c>
       <c r="C31">
-        <v>730</v>
+        <v>748.2960604568028</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -5857,7 +5854,7 @@
         <v>0</v>
       </c>
       <c r="C32">
-        <v>3680</v>
+        <v>4132.902312418774</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -5978,8 +5975,8 @@
       <c r="B33">
         <v>0</v>
       </c>
-      <c r="C33" t="s">
-        <v>73</v>
+      <c r="C33">
+        <v>0</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -6095,13 +6092,13 @@
     </row>
     <row r="34" spans="1:41">
       <c r="A34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
       <c r="C34">
-        <v>21040</v>
+        <v>21724.2423576681</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -6217,13 +6214,13 @@
     </row>
     <row r="35" spans="1:41">
       <c r="A35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="C35">
-        <v>2260</v>
+        <v>2100.656463590606</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -6339,13 +6336,13 @@
     </row>
     <row r="36" spans="1:41">
       <c r="A36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36">
-        <v>1120</v>
+        <v>1268.249210347625</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -6461,13 +6458,13 @@
     </row>
     <row r="37" spans="1:41">
       <c r="A37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
       <c r="C37">
-        <v>2150</v>
+        <v>2979.004713899616</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -6583,13 +6580,13 @@
     </row>
     <row r="38" spans="1:41">
       <c r="A38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
       <c r="C38">
-        <v>6780</v>
+        <v>8573.70829393744</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -6705,13 +6702,13 @@
     </row>
     <row r="39" spans="1:41">
       <c r="A39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
       <c r="C39">
-        <v>860</v>
+        <v>894.8179564778769</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -6827,7 +6824,7 @@
     </row>
     <row r="40" spans="1:41">
       <c r="A40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -6949,13 +6946,13 @@
     </row>
     <row r="41" spans="1:41">
       <c r="A41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B41">
         <v>1</v>
       </c>
       <c r="C41">
-        <v>640</v>
+        <v>899.2426442439591</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -7071,13 +7068,13 @@
     </row>
     <row r="42" spans="1:41">
       <c r="A42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
       <c r="C42">
-        <v>1010</v>
+        <v>993.3829437244538</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -7193,13 +7190,13 @@
     </row>
     <row r="43" spans="1:41">
       <c r="A43" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
       <c r="C43">
-        <v>2010</v>
+        <v>2609.688011589589</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -7315,13 +7312,13 @@
     </row>
     <row r="44" spans="1:41">
       <c r="A44" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B44">
         <v>0</v>
       </c>
       <c r="C44">
-        <v>660</v>
+        <v>719.2083295390654</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -7437,13 +7434,13 @@
     </row>
     <row r="45" spans="1:41">
       <c r="A45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B45">
         <v>1</v>
       </c>
       <c r="C45">
-        <v>2550</v>
+        <v>749.9184730334429</v>
       </c>
       <c r="D45">
         <v>124000</v>
@@ -7559,13 +7556,13 @@
     </row>
     <row r="46" spans="1:41">
       <c r="A46" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
       <c r="C46">
-        <v>1150</v>
+        <v>1562.405052780925</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -7681,13 +7678,13 @@
     </row>
     <row r="47" spans="1:41">
       <c r="A47" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B47">
         <v>0</v>
       </c>
       <c r="C47">
-        <v>1010</v>
+        <v>1250.795760575873</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -7803,13 +7800,13 @@
     </row>
     <row r="48" spans="1:41">
       <c r="A48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B48">
         <v>0</v>
       </c>
       <c r="C48">
-        <v>4280</v>
+        <v>3928.450391496945</v>
       </c>
       <c r="D48">
         <v>170000</v>
@@ -7925,13 +7922,13 @@
     </row>
     <row r="49" spans="1:41">
       <c r="A49" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B49">
         <v>0</v>
       </c>
       <c r="C49">
-        <v>4970</v>
+        <v>4562.708447927627</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -8047,13 +8044,13 @@
     </row>
     <row r="50" spans="1:41">
       <c r="A50" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
       <c r="C50">
-        <v>6750</v>
+        <v>6726.886926609853</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -8169,13 +8166,13 @@
     </row>
     <row r="51" spans="1:41">
       <c r="A51" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B51">
         <v>0</v>
       </c>
       <c r="C51">
-        <v>4610</v>
+        <v>4398.889002685474</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -8291,13 +8288,13 @@
     </row>
     <row r="52" spans="1:41">
       <c r="A52" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
       <c r="C52">
-        <v>9190</v>
+        <v>8492.617491932626</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -8413,13 +8410,13 @@
     </row>
     <row r="53" spans="1:41">
       <c r="A53" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
       <c r="C53">
-        <v>6474.166666666667</v>
+        <v>5741.405300355145</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -8535,13 +8532,13 @@
     </row>
     <row r="54" spans="1:41">
       <c r="A54" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B54">
         <v>0</v>
       </c>
       <c r="C54">
-        <v>9580</v>
+        <v>9976.150516313484</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -8657,7 +8654,7 @@
     </row>
     <row r="55" spans="1:41">
       <c r="A55" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -8779,13 +8776,13 @@
     </row>
     <row r="56" spans="1:41">
       <c r="A56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B56">
         <v>0</v>
       </c>
       <c r="C56">
-        <v>4160</v>
+        <v>4493.184126335917</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -8901,13 +8898,13 @@
     </row>
     <row r="57" spans="1:41">
       <c r="A57" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
       <c r="C57">
-        <v>5520</v>
+        <v>6309.641608547982</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -9023,13 +9020,13 @@
     </row>
     <row r="58" spans="1:41">
       <c r="A58" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B58">
         <v>0</v>
       </c>
-      <c r="C58" t="s">
-        <v>73</v>
+      <c r="C58">
+        <v>0</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -9145,7 +9142,7 @@
     </row>
     <row r="59" spans="1:41">
       <c r="A59" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -9267,13 +9264,13 @@
     </row>
     <row r="60" spans="1:41">
       <c r="A60" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B60">
         <v>1</v>
       </c>
       <c r="C60">
-        <v>3240</v>
+        <v>3587.883798243964</v>
       </c>
       <c r="D60">
         <v>2400000</v>
@@ -9389,13 +9386,13 @@
     </row>
     <row r="61" spans="1:41">
       <c r="A61" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B61">
         <v>1</v>
       </c>
       <c r="C61">
-        <v>1310</v>
+        <v>1137.275701861438</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -9511,13 +9508,13 @@
     </row>
     <row r="62" spans="1:41">
       <c r="A62" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B62">
         <v>1</v>
       </c>
       <c r="C62">
-        <v>420</v>
+        <v>471.9591970298227</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -9633,13 +9630,13 @@
     </row>
     <row r="63" spans="1:41">
       <c r="A63" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B63">
         <v>1</v>
       </c>
       <c r="C63">
-        <v>450</v>
+        <v>478.6685897045245</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -9755,13 +9752,13 @@
     </row>
     <row r="64" spans="1:41">
       <c r="A64" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B64">
         <v>1</v>
       </c>
       <c r="C64">
-        <v>480</v>
+        <v>471.181692645893</v>
       </c>
       <c r="D64">
         <v>2000000</v>
@@ -9877,13 +9874,13 @@
     </row>
     <row r="65" spans="1:41">
       <c r="A65" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B65">
         <v>0</v>
       </c>
       <c r="C65">
-        <v>4510</v>
+        <v>5318.006939671951</v>
       </c>
       <c r="D65">
         <v>345000</v>
@@ -9999,7 +9996,7 @@
     </row>
     <row r="66" spans="1:41">
       <c r="A66" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -10121,13 +10118,13 @@
     </row>
     <row r="67" spans="1:41">
       <c r="A67" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B67">
         <v>0</v>
       </c>
       <c r="C67">
-        <v>6190</v>
+        <v>7328.615628939658</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -10243,13 +10240,13 @@
     </row>
     <row r="68" spans="1:41">
       <c r="A68" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B68">
         <v>0</v>
       </c>
       <c r="C68">
-        <v>720</v>
+        <v>743.403784726004</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -10365,13 +10362,13 @@
     </row>
     <row r="69" spans="1:41">
       <c r="A69" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B69">
         <v>1</v>
       </c>
       <c r="C69">
-        <v>1340</v>
+        <v>1489.459305835934</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -10487,13 +10484,13 @@
     </row>
     <row r="70" spans="1:41">
       <c r="A70" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B70">
         <v>0</v>
       </c>
       <c r="C70">
-        <v>1330</v>
+        <v>1286.515571617672</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -10609,13 +10606,13 @@
     </row>
     <row r="71" spans="1:41">
       <c r="A71" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B71">
         <v>0</v>
       </c>
       <c r="C71">
-        <v>7830</v>
+        <v>8849.355299715067</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -10731,13 +10728,13 @@
     </row>
     <row r="72" spans="1:41">
       <c r="A72" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B72">
         <v>1</v>
       </c>
       <c r="C72">
-        <v>9970</v>
+        <v>17288.8595992193</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -10853,13 +10850,13 @@
     </row>
     <row r="73" spans="1:41">
       <c r="A73" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B73">
         <v>1</v>
       </c>
       <c r="C73">
-        <v>510</v>
+        <v>488.421401781569</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -10975,13 +10972,13 @@
     </row>
     <row r="74" spans="1:41">
       <c r="A74" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B74">
         <v>1</v>
       </c>
       <c r="C74">
-        <v>1130</v>
+        <v>1094.710717322873</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -11097,13 +11094,13 @@
     </row>
     <row r="75" spans="1:41">
       <c r="A75" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B75">
         <v>0</v>
       </c>
       <c r="C75">
-        <v>2930</v>
+        <v>2839.92516805933</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -11219,7 +11216,7 @@
     </row>
     <row r="76" spans="1:41">
       <c r="A76" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -11341,13 +11338,13 @@
     </row>
     <row r="77" spans="1:41">
       <c r="A77" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B77">
         <v>0</v>
       </c>
       <c r="C77">
-        <v>4130</v>
+        <v>4141.976353364595</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -11463,13 +11460,13 @@
     </row>
     <row r="78" spans="1:41">
       <c r="A78" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B78">
         <v>1</v>
       </c>
       <c r="C78">
-        <v>790</v>
+        <v>1036.533951644687</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -11585,13 +11582,13 @@
     </row>
     <row r="79" spans="1:41">
       <c r="A79" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B79">
         <v>1</v>
       </c>
       <c r="C79">
-        <v>570</v>
+        <v>647.8358464534491</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -11707,13 +11704,13 @@
     </row>
     <row r="80" spans="1:41">
       <c r="A80" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B80">
         <v>0</v>
       </c>
       <c r="C80">
-        <v>3400</v>
+        <v>3378.254859500355</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -11829,13 +11826,13 @@
     </row>
     <row r="81" spans="1:41">
       <c r="A81" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B81">
         <v>0</v>
       </c>
       <c r="C81">
-        <v>1190</v>
+        <v>1213.112645064426</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -11951,13 +11948,13 @@
     </row>
     <row r="82" spans="1:41">
       <c r="A82" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B82">
         <v>1</v>
       </c>
       <c r="C82">
-        <v>550</v>
+        <v>860.6378736881254</v>
       </c>
       <c r="D82">
         <v>1440000</v>
@@ -12073,13 +12070,13 @@
     </row>
     <row r="83" spans="1:41">
       <c r="A83" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B83">
         <v>0</v>
       </c>
       <c r="C83">
-        <v>1230</v>
+        <v>1299.344949460393</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -12195,13 +12192,13 @@
     </row>
     <row r="84" spans="1:41">
       <c r="A84" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B84">
         <v>0</v>
       </c>
       <c r="C84">
-        <v>650</v>
+        <v>672.4244025624427</v>
       </c>
       <c r="D84">
         <v>430000</v>
@@ -12317,13 +12314,13 @@
     </row>
     <row r="85" spans="1:41">
       <c r="A85" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B85">
         <v>1</v>
       </c>
       <c r="C85">
-        <v>580</v>
+        <v>557.6321326261259</v>
       </c>
       <c r="D85">
         <v>1440000</v>
@@ -12439,13 +12436,13 @@
     </row>
     <row r="86" spans="1:41">
       <c r="A86" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B86">
         <v>1</v>
       </c>
       <c r="C86">
-        <v>460</v>
+        <v>513.4456986202239</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -12561,13 +12558,13 @@
     </row>
     <row r="87" spans="1:41">
       <c r="A87" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B87">
         <v>1</v>
       </c>
       <c r="C87">
-        <v>690</v>
+        <v>710.2742021758368</v>
       </c>
       <c r="D87">
         <v>1440000</v>
@@ -12683,13 +12680,13 @@
     </row>
     <row r="88" spans="1:41">
       <c r="A88" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B88">
         <v>1</v>
       </c>
       <c r="C88">
-        <v>1170</v>
+        <v>1610.923908476106</v>
       </c>
       <c r="D88">
         <v>349500</v>
@@ -12805,13 +12802,13 @@
     </row>
     <row r="89" spans="1:41">
       <c r="A89" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B89">
         <v>0</v>
       </c>
       <c r="C89">
-        <v>2140</v>
+        <v>2292.445156190819</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -12927,13 +12924,13 @@
     </row>
     <row r="90" spans="1:41">
       <c r="A90" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B90">
         <v>1</v>
       </c>
       <c r="C90">
-        <v>350</v>
+        <v>473.2998774917226</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -13049,13 +13046,13 @@
     </row>
     <row r="91" spans="1:41">
       <c r="A91" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B91">
         <v>1</v>
       </c>
       <c r="C91">
-        <v>1340</v>
+        <v>1280.225469721551</v>
       </c>
       <c r="D91">
         <v>1440000</v>
@@ -13171,13 +13168,13 @@
     </row>
     <row r="92" spans="1:41">
       <c r="A92" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B92">
         <v>1</v>
       </c>
       <c r="C92">
-        <v>420</v>
+        <v>401.8350013668368</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -13293,13 +13290,13 @@
     </row>
     <row r="93" spans="1:41">
       <c r="A93" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B93">
         <v>1</v>
       </c>
       <c r="C93">
-        <v>560</v>
+        <v>534.0443668101981</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -13415,13 +13412,13 @@
     </row>
     <row r="94" spans="1:41">
       <c r="A94" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B94">
         <v>1</v>
       </c>
       <c r="C94">
-        <v>220</v>
+        <v>234.2356468749991</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -13537,13 +13534,13 @@
     </row>
     <row r="95" spans="1:41">
       <c r="A95" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B95">
         <v>1</v>
       </c>
       <c r="C95">
-        <v>1380</v>
+        <v>1316.49884810552</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -13659,13 +13656,13 @@
     </row>
     <row r="96" spans="1:41">
       <c r="A96" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B96">
         <v>1</v>
       </c>
-      <c r="C96" t="s">
-        <v>73</v>
+      <c r="C96">
+        <v>1343.268729944374</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -13781,13 +13778,13 @@
     </row>
     <row r="97" spans="1:41">
       <c r="A97" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B97">
         <v>1</v>
       </c>
       <c r="C97">
-        <v>570</v>
+        <v>501.3556332662463</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -13903,13 +13900,13 @@
     </row>
     <row r="98" spans="1:41">
       <c r="A98" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B98">
         <v>1</v>
       </c>
       <c r="C98">
-        <v>380</v>
+        <v>341.5541149051794</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -14025,13 +14022,13 @@
     </row>
     <row r="99" spans="1:41">
       <c r="A99" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B99">
         <v>0</v>
       </c>
       <c r="C99">
-        <v>960</v>
+        <v>951.6879611168786</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -14147,13 +14144,13 @@
     </row>
     <row r="100" spans="1:41">
       <c r="A100" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B100">
         <v>1</v>
       </c>
       <c r="C100">
-        <v>570</v>
+        <v>612.3436990512633</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -14269,13 +14266,13 @@
     </row>
     <row r="101" spans="1:41">
       <c r="A101" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B101">
         <v>1</v>
       </c>
       <c r="C101">
-        <v>1260</v>
+        <v>1401.47747416771</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -14391,13 +14388,13 @@
     </row>
     <row r="102" spans="1:41">
       <c r="A102" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B102">
         <v>1</v>
       </c>
       <c r="C102">
-        <v>560</v>
+        <v>815.8736791314819</v>
       </c>
       <c r="D102">
         <v>0</v>
@@ -14513,13 +14510,13 @@
     </row>
     <row r="103" spans="1:41">
       <c r="A103" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
       <c r="C103">
-        <v>15890</v>
+        <v>16056.37097660307</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -14621,7 +14618,7 @@
         <v>1</v>
       </c>
       <c r="AL103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM103">
         <v>0</v>
@@ -14635,13 +14632,13 @@
     </row>
     <row r="104" spans="1:41">
       <c r="A104" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
-        <v>3960</v>
+        <v>4270.864344546988</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -14757,13 +14754,13 @@
     </row>
     <row r="105" spans="1:41">
       <c r="A105" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B105">
         <v>0</v>
       </c>
       <c r="C105">
-        <v>7180</v>
+        <v>8141.91312675461</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -14879,13 +14876,13 @@
     </row>
     <row r="106" spans="1:41">
       <c r="A106" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B106">
         <v>0</v>
       </c>
       <c r="C106">
-        <v>5610</v>
+        <v>5730.354774594881</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -15001,13 +14998,13 @@
     </row>
     <row r="107" spans="1:41">
       <c r="A107" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B107">
         <v>0</v>
       </c>
       <c r="C107">
-        <v>2890</v>
+        <v>2983.242707849043</v>
       </c>
       <c r="D107">
         <v>582725</v>
@@ -15123,13 +15120,13 @@
     </row>
     <row r="108" spans="1:41">
       <c r="A108" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B108">
         <v>0</v>
       </c>
       <c r="C108">
-        <v>6940</v>
+        <v>7257.756622323187</v>
       </c>
       <c r="D108">
         <v>0</v>
@@ -15245,13 +15242,13 @@
     </row>
     <row r="109" spans="1:41">
       <c r="A109" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B109">
         <v>0</v>
       </c>
       <c r="C109">
-        <v>2710</v>
+        <v>2898.942214704482</v>
       </c>
       <c r="D109">
         <v>0</v>
@@ -15367,13 +15364,13 @@
     </row>
     <row r="110" spans="1:41">
       <c r="A110" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B110">
         <v>1</v>
       </c>
       <c r="C110">
-        <v>650</v>
+        <v>665.6274194933962</v>
       </c>
       <c r="D110">
         <v>0</v>
@@ -15475,7 +15472,7 @@
         <v>1</v>
       </c>
       <c r="AL110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM110">
         <v>1</v>
@@ -15489,13 +15486,13 @@
     </row>
     <row r="111" spans="1:41">
       <c r="A111" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B111">
         <v>0</v>
       </c>
       <c r="C111">
-        <v>1730</v>
+        <v>1904.346464968814</v>
       </c>
       <c r="D111">
         <v>396724</v>
@@ -15611,13 +15608,13 @@
     </row>
     <row r="112" spans="1:41">
       <c r="A112" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B112">
         <v>0</v>
       </c>
       <c r="C112">
-        <v>4380</v>
+        <v>4704.054454681659</v>
       </c>
       <c r="D112">
         <v>0</v>
@@ -15719,7 +15716,7 @@
         <v>1</v>
       </c>
       <c r="AL112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM112">
         <v>0</v>
@@ -15733,13 +15730,13 @@
     </row>
     <row r="113" spans="1:41">
       <c r="A113" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B113">
         <v>0</v>
       </c>
       <c r="C113">
-        <v>9040</v>
+        <v>9271.398233246389</v>
       </c>
       <c r="D113">
         <v>0</v>
@@ -15855,13 +15852,13 @@
     </row>
     <row r="114" spans="1:41">
       <c r="A114" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B114">
         <v>0</v>
       </c>
       <c r="C114">
-        <v>1460</v>
+        <v>1503.870423231357</v>
       </c>
       <c r="D114">
         <v>0</v>
@@ -15977,13 +15974,13 @@
     </row>
     <row r="115" spans="1:41">
       <c r="A115" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B115">
         <v>0</v>
       </c>
       <c r="C115">
-        <v>7150</v>
+        <v>8082.02845866252</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -16099,13 +16096,13 @@
     </row>
     <row r="116" spans="1:41">
       <c r="A116" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B116">
         <v>0</v>
       </c>
       <c r="C116">
-        <v>5340</v>
+        <v>5555.389721901988</v>
       </c>
       <c r="D116">
         <v>2000000</v>
@@ -16207,7 +16204,7 @@
         <v>1</v>
       </c>
       <c r="AL116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM116">
         <v>1</v>
@@ -16221,13 +16218,13 @@
     </row>
     <row r="117" spans="1:41">
       <c r="A117" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B117">
         <v>0</v>
       </c>
       <c r="C117">
-        <v>6090</v>
+        <v>6292.789487099218</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -16343,13 +16340,13 @@
     </row>
     <row r="118" spans="1:41">
       <c r="A118" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B118">
         <v>0</v>
       </c>
       <c r="C118">
-        <v>16460</v>
+        <v>16683.35537873761</v>
       </c>
       <c r="D118">
         <v>0</v>
@@ -16451,7 +16448,7 @@
         <v>1</v>
       </c>
       <c r="AL118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM118">
         <v>0</v>
@@ -16465,13 +16462,13 @@
     </row>
     <row r="119" spans="1:41">
       <c r="A119" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B119">
         <v>0</v>
       </c>
       <c r="C119">
-        <v>9270</v>
+        <v>10385.96443195552</v>
       </c>
       <c r="D119">
         <v>0</v>
@@ -16587,13 +16584,13 @@
     </row>
     <row r="120" spans="1:41">
       <c r="A120" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B120">
         <v>0</v>
       </c>
       <c r="C120">
-        <v>1780</v>
+        <v>1955.461557360978</v>
       </c>
       <c r="D120">
         <v>0</v>
@@ -16709,13 +16706,13 @@
     </row>
     <row r="121" spans="1:41">
       <c r="A121" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B121">
         <v>0</v>
       </c>
       <c r="C121">
-        <v>9660</v>
+        <v>11286.24301624575</v>
       </c>
       <c r="D121">
         <v>0</v>
@@ -16831,13 +16828,13 @@
     </row>
     <row r="122" spans="1:41">
       <c r="A122" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B122">
         <v>0</v>
       </c>
       <c r="C122">
-        <v>10750</v>
+        <v>12808.034586422</v>
       </c>
       <c r="D122">
         <v>0</v>
@@ -16953,13 +16950,13 @@
     </row>
     <row r="123" spans="1:41">
       <c r="A123" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B123">
         <v>0</v>
       </c>
       <c r="C123">
-        <v>5610</v>
+        <v>6336.709213679884</v>
       </c>
       <c r="D123">
         <v>2970000</v>
@@ -17075,13 +17072,13 @@
     </row>
     <row r="124" spans="1:41">
       <c r="A124" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B124">
         <v>0</v>
       </c>
       <c r="C124">
-        <v>4390</v>
+        <v>4633.590358399045</v>
       </c>
       <c r="D124">
         <v>343724</v>
@@ -17197,13 +17194,13 @@
     </row>
     <row r="125" spans="1:41">
       <c r="A125" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B125">
         <v>0</v>
       </c>
       <c r="C125">
-        <v>4070</v>
+        <v>4355.934938677345</v>
       </c>
       <c r="D125">
         <v>0</v>
@@ -17319,13 +17316,13 @@
     </row>
     <row r="126" spans="1:41">
       <c r="A126" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B126">
         <v>0</v>
       </c>
       <c r="C126">
-        <v>4410</v>
+        <v>5082.354756663512</v>
       </c>
       <c r="D126">
         <v>169522</v>
@@ -17441,13 +17438,13 @@
     </row>
     <row r="127" spans="1:41">
       <c r="A127" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B127">
         <v>0</v>
       </c>
       <c r="C127">
-        <v>10440</v>
+        <v>11992.01662617741</v>
       </c>
       <c r="D127">
         <v>0</v>
@@ -17563,13 +17560,13 @@
     </row>
     <row r="128" spans="1:41">
       <c r="A128" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B128">
         <v>0</v>
       </c>
       <c r="C128">
-        <v>11810</v>
+        <v>13825.35808833117</v>
       </c>
       <c r="D128">
         <v>0</v>
@@ -17685,13 +17682,13 @@
     </row>
     <row r="129" spans="1:41">
       <c r="A129" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B129">
         <v>0</v>
       </c>
       <c r="C129">
-        <v>3470</v>
+        <v>3218.372706605634</v>
       </c>
       <c r="D129">
         <v>0</v>
@@ -17807,13 +17804,13 @@
     </row>
     <row r="130" spans="1:41">
       <c r="A130" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B130">
         <v>1</v>
       </c>
       <c r="C130">
-        <v>800</v>
+        <v>781.1535935570469</v>
       </c>
       <c r="D130">
         <v>0</v>
@@ -17929,13 +17926,13 @@
     </row>
     <row r="131" spans="1:41">
       <c r="A131" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B131">
         <v>0</v>
       </c>
       <c r="C131">
-        <v>4340</v>
+        <v>4550.453595838572</v>
       </c>
       <c r="D131">
         <v>0</v>
@@ -18051,13 +18048,13 @@
     </row>
     <row r="132" spans="1:41">
       <c r="A132" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B132">
         <v>0</v>
       </c>
-      <c r="C132" t="s">
-        <v>73</v>
+      <c r="C132">
+        <v>0</v>
       </c>
       <c r="D132">
         <v>0</v>
@@ -18173,13 +18170,13 @@
     </row>
     <row r="133" spans="1:41">
       <c r="A133" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B133">
         <v>0</v>
       </c>
       <c r="C133">
-        <v>2460</v>
+        <v>2217.474008566157</v>
       </c>
       <c r="D133">
         <v>1840000</v>
@@ -18295,13 +18292,13 @@
     </row>
     <row r="134" spans="1:41">
       <c r="A134" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B134">
         <v>0</v>
       </c>
       <c r="C134">
-        <v>1220</v>
+        <v>1357.563719132622</v>
       </c>
       <c r="D134">
         <v>0</v>
@@ -18417,13 +18414,13 @@
     </row>
     <row r="135" spans="1:41">
       <c r="A135" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B135">
         <v>0</v>
       </c>
       <c r="C135">
-        <v>2530</v>
+        <v>3122.362815216495</v>
       </c>
       <c r="D135">
         <v>0</v>
@@ -18539,13 +18536,13 @@
     </row>
     <row r="136" spans="1:41">
       <c r="A136" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B136">
         <v>0</v>
       </c>
       <c r="C136">
-        <v>850</v>
+        <v>880.0377751191087</v>
       </c>
       <c r="D136">
         <v>0</v>
@@ -18661,13 +18658,13 @@
     </row>
     <row r="137" spans="1:41">
       <c r="A137" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B137">
         <v>1</v>
       </c>
       <c r="C137">
-        <v>850</v>
+        <v>979.0516300049418</v>
       </c>
       <c r="D137">
         <v>0</v>
@@ -18783,13 +18780,13 @@
     </row>
     <row r="138" spans="1:41">
       <c r="A138" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B138">
         <v>1</v>
       </c>
       <c r="C138">
-        <v>540</v>
+        <v>592.4010974509293</v>
       </c>
       <c r="D138">
         <v>0</v>
@@ -18905,13 +18902,13 @@
     </row>
     <row r="139" spans="1:41">
       <c r="A139" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B139">
         <v>0</v>
       </c>
       <c r="C139">
-        <v>1030</v>
+        <v>987.4097230439231</v>
       </c>
       <c r="D139">
         <v>0</v>
@@ -19027,13 +19024,13 @@
     </row>
     <row r="140" spans="1:41">
       <c r="A140" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B140">
         <v>0</v>
       </c>
       <c r="C140">
-        <v>2410</v>
+        <v>2799.648876199722</v>
       </c>
       <c r="D140">
         <v>0</v>
@@ -19149,13 +19146,13 @@
     </row>
     <row r="141" spans="1:41">
       <c r="A141" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B141">
         <v>0</v>
       </c>
       <c r="C141">
-        <v>920</v>
+        <v>749.5527110158416</v>
       </c>
       <c r="D141">
         <v>0</v>
@@ -19271,13 +19268,13 @@
     </row>
     <row r="142" spans="1:41">
       <c r="A142" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B142">
         <v>1</v>
       </c>
       <c r="C142">
-        <v>2850</v>
+        <v>806.4078617098597</v>
       </c>
       <c r="D142">
         <v>0</v>
@@ -19393,13 +19390,13 @@
     </row>
     <row r="143" spans="1:41">
       <c r="A143" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B143">
         <v>0</v>
       </c>
       <c r="C143">
-        <v>1250</v>
+        <v>1317.890706178356</v>
       </c>
       <c r="D143">
         <v>1750000</v>
@@ -19515,13 +19512,13 @@
     </row>
     <row r="144" spans="1:41">
       <c r="A144" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B144">
         <v>0</v>
       </c>
       <c r="C144">
-        <v>4360</v>
+        <v>4094.350334420203</v>
       </c>
       <c r="D144">
         <v>170000</v>
@@ -19637,13 +19634,13 @@
     </row>
     <row r="145" spans="1:41">
       <c r="A145" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B145">
         <v>0</v>
       </c>
       <c r="C145">
-        <v>4960</v>
+        <v>4635.517779317834</v>
       </c>
       <c r="D145">
         <v>0</v>
@@ -19759,13 +19756,13 @@
     </row>
     <row r="146" spans="1:41">
       <c r="A146" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B146">
         <v>0</v>
       </c>
       <c r="C146">
-        <v>6980</v>
+        <v>6809.89898414354</v>
       </c>
       <c r="D146">
         <v>0</v>
@@ -19881,13 +19878,13 @@
     </row>
     <row r="147" spans="1:41">
       <c r="A147" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B147">
         <v>0</v>
       </c>
       <c r="C147">
-        <v>4700</v>
+        <v>4542.899716783171</v>
       </c>
       <c r="D147">
         <v>0</v>
@@ -20003,13 +20000,13 @@
     </row>
     <row r="148" spans="1:41">
       <c r="A148" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B148">
         <v>0</v>
       </c>
       <c r="C148">
-        <v>1910</v>
+        <v>2437.529978424225</v>
       </c>
       <c r="D148">
         <v>0</v>
@@ -20125,13 +20122,13 @@
     </row>
     <row r="149" spans="1:41">
       <c r="A149" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B149">
         <v>0</v>
       </c>
       <c r="C149">
-        <v>6278.333333333333</v>
+        <v>5814.327715027426</v>
       </c>
       <c r="D149">
         <v>0</v>
@@ -20247,13 +20244,13 @@
     </row>
     <row r="150" spans="1:41">
       <c r="A150" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B150">
         <v>0</v>
       </c>
       <c r="C150">
-        <v>6200</v>
+        <v>6599.660937910036</v>
       </c>
       <c r="D150">
         <v>0</v>
@@ -20369,13 +20366,13 @@
     </row>
     <row r="151" spans="1:41">
       <c r="A151" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B151">
         <v>0</v>
       </c>
-      <c r="C151" t="s">
-        <v>73</v>
+      <c r="C151">
+        <v>0</v>
       </c>
       <c r="D151">
         <v>0</v>
@@ -20491,7 +20488,7 @@
     </row>
     <row r="152" spans="1:41">
       <c r="A152" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -20613,13 +20610,13 @@
     </row>
     <row r="153" spans="1:41">
       <c r="A153" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B153">
         <v>1</v>
       </c>
       <c r="C153">
-        <v>3420</v>
+        <v>3579.960081455846</v>
       </c>
       <c r="D153">
         <v>2400000</v>
@@ -20735,13 +20732,13 @@
     </row>
     <row r="154" spans="1:41">
       <c r="A154" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B154">
         <v>1</v>
       </c>
       <c r="C154">
-        <v>420</v>
+        <v>466.3491752969743</v>
       </c>
       <c r="D154">
         <v>0</v>
@@ -20857,13 +20854,13 @@
     </row>
     <row r="155" spans="1:41">
       <c r="A155" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B155">
         <v>1</v>
       </c>
       <c r="C155">
-        <v>490</v>
+        <v>487.7306818514292</v>
       </c>
       <c r="D155">
         <v>0</v>
@@ -20979,13 +20976,13 @@
     </row>
     <row r="156" spans="1:41">
       <c r="A156" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B156">
         <v>0</v>
       </c>
       <c r="C156">
-        <v>8400</v>
+        <v>8313.271253931192</v>
       </c>
       <c r="D156">
         <v>0</v>
@@ -21101,13 +21098,13 @@
     </row>
     <row r="157" spans="1:41">
       <c r="A157" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B157">
         <v>1</v>
       </c>
       <c r="C157">
-        <v>500</v>
+        <v>492.3430015592067</v>
       </c>
       <c r="D157">
         <v>2000000</v>
@@ -21223,13 +21220,13 @@
     </row>
     <row r="158" spans="1:41">
       <c r="A158" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B158">
         <v>0</v>
       </c>
       <c r="C158">
-        <v>5160</v>
+        <v>5490.741705350987</v>
       </c>
       <c r="D158">
         <v>345000</v>
@@ -21345,7 +21342,7 @@
     </row>
     <row r="159" spans="1:41">
       <c r="A159" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B159">
         <v>1</v>
@@ -21467,13 +21464,13 @@
     </row>
     <row r="160" spans="1:41">
       <c r="A160" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B160">
         <v>0</v>
       </c>
       <c r="C160">
-        <v>6990</v>
+        <v>7454.720164783006</v>
       </c>
       <c r="D160">
         <v>0</v>
@@ -21589,13 +21586,13 @@
     </row>
     <row r="161" spans="1:41">
       <c r="A161" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B161">
         <v>0</v>
       </c>
       <c r="C161">
-        <v>770</v>
+        <v>777.227218443918</v>
       </c>
       <c r="D161">
         <v>0</v>
@@ -21711,13 +21708,13 @@
     </row>
     <row r="162" spans="1:41">
       <c r="A162" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B162">
         <v>1</v>
       </c>
       <c r="C162">
-        <v>1420</v>
+        <v>1525.562493537689</v>
       </c>
       <c r="D162">
         <v>0</v>
@@ -21833,13 +21830,13 @@
     </row>
     <row r="163" spans="1:41">
       <c r="A163" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B163">
         <v>0</v>
       </c>
       <c r="C163">
-        <v>1350</v>
+        <v>1303.425880277445</v>
       </c>
       <c r="D163">
         <v>0</v>
@@ -21955,13 +21952,13 @@
     </row>
     <row r="164" spans="1:41">
       <c r="A164" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B164">
         <v>1</v>
       </c>
       <c r="C164">
-        <v>880</v>
+        <v>863.7612548677739</v>
       </c>
       <c r="D164">
         <v>0</v>
@@ -22077,13 +22074,13 @@
     </row>
     <row r="165" spans="1:41">
       <c r="A165" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B165">
         <v>0</v>
       </c>
       <c r="C165">
-        <v>2120</v>
+        <v>2828.483778716848</v>
       </c>
       <c r="D165">
         <v>0</v>
@@ -22199,13 +22196,13 @@
     </row>
     <row r="166" spans="1:41">
       <c r="A166" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B166">
         <v>1</v>
       </c>
       <c r="C166">
-        <v>11530</v>
+        <v>17610.30663334184</v>
       </c>
       <c r="D166">
         <v>0</v>
@@ -22321,13 +22318,13 @@
     </row>
     <row r="167" spans="1:41">
       <c r="A167" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B167">
         <v>1</v>
       </c>
       <c r="C167">
-        <v>530</v>
+        <v>505.2384587280311</v>
       </c>
       <c r="D167">
         <v>0</v>
@@ -22443,13 +22440,13 @@
     </row>
     <row r="168" spans="1:41">
       <c r="A168" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B168">
         <v>1</v>
       </c>
       <c r="C168">
-        <v>1190</v>
+        <v>1117.136500064653</v>
       </c>
       <c r="D168">
         <v>0</v>
@@ -22565,13 +22562,13 @@
     </row>
     <row r="169" spans="1:41">
       <c r="A169" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B169">
         <v>0</v>
       </c>
       <c r="C169">
-        <v>4600</v>
+        <v>4524.720276132375</v>
       </c>
       <c r="D169">
         <v>0</v>
@@ -22687,13 +22684,13 @@
     </row>
     <row r="170" spans="1:41">
       <c r="A170" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B170">
         <v>0</v>
       </c>
       <c r="C170">
-        <v>3000</v>
+        <v>2948.84548976845</v>
       </c>
       <c r="D170">
         <v>0</v>
@@ -22809,7 +22806,7 @@
     </row>
     <row r="171" spans="1:41">
       <c r="A171" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -22931,13 +22928,13 @@
     </row>
     <row r="172" spans="1:41">
       <c r="A172" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B172">
         <v>0</v>
       </c>
       <c r="C172">
-        <v>3990</v>
+        <v>4022.237688257</v>
       </c>
       <c r="D172">
         <v>0</v>
@@ -23053,13 +23050,13 @@
     </row>
     <row r="173" spans="1:41">
       <c r="A173" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B173">
         <v>1</v>
       </c>
       <c r="C173">
-        <v>600</v>
+        <v>670.2645481663891</v>
       </c>
       <c r="D173">
         <v>0</v>
@@ -23175,13 +23172,13 @@
     </row>
     <row r="174" spans="1:41">
       <c r="A174" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B174">
         <v>0</v>
       </c>
       <c r="C174">
-        <v>1120</v>
+        <v>1132.548400540401</v>
       </c>
       <c r="D174">
         <v>0</v>
@@ -23297,13 +23294,13 @@
     </row>
     <row r="175" spans="1:41">
       <c r="A175" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B175">
         <v>1</v>
       </c>
       <c r="C175">
-        <v>480</v>
+        <v>767.1553536433389</v>
       </c>
       <c r="D175">
         <v>1440000</v>
@@ -23419,13 +23416,13 @@
     </row>
     <row r="176" spans="1:41">
       <c r="A176" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B176">
         <v>0</v>
       </c>
       <c r="C176">
-        <v>650</v>
+        <v>694.6031345426339</v>
       </c>
       <c r="D176">
         <v>0</v>
@@ -23541,13 +23538,13 @@
     </row>
     <row r="177" spans="1:41">
       <c r="A177" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B177">
         <v>1</v>
       </c>
       <c r="C177">
-        <v>640</v>
+        <v>587.1403830380606</v>
       </c>
       <c r="D177">
         <v>1440000</v>
@@ -23663,13 +23660,13 @@
     </row>
     <row r="178" spans="1:41">
       <c r="A178" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B178">
         <v>1</v>
       </c>
       <c r="C178">
-        <v>520</v>
+        <v>538.1162350013198</v>
       </c>
       <c r="D178">
         <v>0</v>
@@ -23785,13 +23782,13 @@
     </row>
     <row r="179" spans="1:41">
       <c r="A179" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B179">
         <v>1</v>
       </c>
       <c r="C179">
-        <v>730</v>
+        <v>711.1128122770988</v>
       </c>
       <c r="D179">
         <v>1440000</v>
@@ -23907,13 +23904,13 @@
     </row>
     <row r="180" spans="1:41">
       <c r="A180" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B180">
         <v>1</v>
       </c>
       <c r="C180">
-        <v>1240</v>
+        <v>1629.435089125503</v>
       </c>
       <c r="D180">
         <v>0</v>
@@ -24029,13 +24026,13 @@
     </row>
     <row r="181" spans="1:41">
       <c r="A181" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B181">
         <v>1</v>
       </c>
       <c r="C181">
-        <v>360</v>
+        <v>466.0709276378625</v>
       </c>
       <c r="D181">
         <v>0</v>
@@ -24151,13 +24148,13 @@
     </row>
     <row r="182" spans="1:41">
       <c r="A182" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B182">
         <v>1</v>
       </c>
       <c r="C182">
-        <v>1310</v>
+        <v>1263.452411343738</v>
       </c>
       <c r="D182">
         <v>1440000</v>
@@ -24273,13 +24270,13 @@
     </row>
     <row r="183" spans="1:41">
       <c r="A183" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B183">
         <v>1</v>
       </c>
       <c r="C183">
-        <v>430</v>
+        <v>417.6031683854853</v>
       </c>
       <c r="D183">
         <v>0</v>
@@ -24395,13 +24392,13 @@
     </row>
     <row r="184" spans="1:41">
       <c r="A184" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B184">
         <v>1</v>
       </c>
       <c r="C184">
-        <v>610</v>
+        <v>553.2014555484933</v>
       </c>
       <c r="D184">
         <v>0</v>
@@ -24517,13 +24514,13 @@
     </row>
     <row r="185" spans="1:41">
       <c r="A185" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B185">
         <v>1</v>
       </c>
       <c r="C185">
-        <v>230</v>
+        <v>235.9887666597866</v>
       </c>
       <c r="D185">
         <v>0</v>
@@ -24639,13 +24636,13 @@
     </row>
     <row r="186" spans="1:41">
       <c r="A186" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B186">
         <v>1</v>
       </c>
       <c r="C186">
-        <v>1400</v>
+        <v>1337.738368930323</v>
       </c>
       <c r="D186">
         <v>0</v>
@@ -24761,13 +24758,13 @@
     </row>
     <row r="187" spans="1:41">
       <c r="A187" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B187">
         <v>1</v>
       </c>
-      <c r="C187" t="s">
-        <v>73</v>
+      <c r="C187">
+        <v>0</v>
       </c>
       <c r="D187">
         <v>0</v>
@@ -24883,13 +24880,13 @@
     </row>
     <row r="188" spans="1:41">
       <c r="A188" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B188">
         <v>1</v>
       </c>
       <c r="C188">
-        <v>720</v>
+        <v>537.4913682903079</v>
       </c>
       <c r="D188">
         <v>0</v>
@@ -25005,13 +25002,13 @@
     </row>
     <row r="189" spans="1:41">
       <c r="A189" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B189">
         <v>1</v>
       </c>
       <c r="C189">
-        <v>390</v>
+        <v>369.2024078290272</v>
       </c>
       <c r="D189">
         <v>0</v>
@@ -25127,13 +25124,13 @@
     </row>
     <row r="190" spans="1:41">
       <c r="A190" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B190">
         <v>0</v>
       </c>
       <c r="C190">
-        <v>990</v>
+        <v>982.980837581714</v>
       </c>
       <c r="D190">
         <v>0</v>
@@ -25249,13 +25246,13 @@
     </row>
     <row r="191" spans="1:41">
       <c r="A191" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B191">
         <v>1</v>
       </c>
       <c r="C191">
-        <v>620</v>
+        <v>644.763840173281</v>
       </c>
       <c r="D191">
         <v>0</v>
@@ -25371,13 +25368,13 @@
     </row>
     <row r="192" spans="1:41">
       <c r="A192" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B192">
         <v>1</v>
       </c>
-      <c r="C192" t="s">
-        <v>73</v>
+      <c r="C192">
+        <v>0</v>
       </c>
       <c r="D192">
         <v>0</v>
@@ -25493,13 +25490,13 @@
     </row>
     <row r="193" spans="1:41">
       <c r="A193" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B193">
         <v>1</v>
       </c>
       <c r="C193">
-        <v>1480</v>
+        <v>1591.56825353313</v>
       </c>
       <c r="D193">
         <v>369896</v>
@@ -25615,13 +25612,13 @@
     </row>
     <row r="194" spans="1:41">
       <c r="A194" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B194">
         <v>0</v>
       </c>
       <c r="C194">
-        <v>8000</v>
+        <v>8390.479071096475</v>
       </c>
       <c r="D194">
         <v>0</v>
@@ -25737,13 +25734,13 @@
     </row>
     <row r="195" spans="1:41">
       <c r="A195" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B195">
         <v>0</v>
       </c>
       <c r="C195">
-        <v>5930</v>
+        <v>5885.254624554112</v>
       </c>
       <c r="D195">
         <v>0</v>
@@ -25859,13 +25856,13 @@
     </row>
     <row r="196" spans="1:41">
       <c r="A196" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B196">
         <v>0</v>
       </c>
       <c r="C196">
-        <v>3060</v>
+        <v>3083.80337578809</v>
       </c>
       <c r="D196">
         <v>582725</v>
@@ -25981,13 +25978,13 @@
     </row>
     <row r="197" spans="1:41">
       <c r="A197" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B197">
         <v>0</v>
       </c>
       <c r="C197">
-        <v>7060</v>
+        <v>7274.723135724264</v>
       </c>
       <c r="D197">
         <v>0</v>
@@ -26103,13 +26100,13 @@
     </row>
     <row r="198" spans="1:41">
       <c r="A198" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B198">
         <v>0</v>
       </c>
       <c r="C198">
-        <v>2860</v>
+        <v>2965.153206179127</v>
       </c>
       <c r="D198">
         <v>270000</v>
@@ -26225,13 +26222,13 @@
     </row>
     <row r="199" spans="1:41">
       <c r="A199" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B199">
         <v>1</v>
       </c>
       <c r="C199">
-        <v>710</v>
+        <v>691.8942672110555</v>
       </c>
       <c r="D199">
         <v>0</v>
@@ -26333,7 +26330,7 @@
         <v>1</v>
       </c>
       <c r="AL199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM199">
         <v>1</v>
@@ -26347,13 +26344,13 @@
     </row>
     <row r="200" spans="1:41">
       <c r="A200" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B200">
         <v>0</v>
       </c>
       <c r="C200">
-        <v>1860</v>
+        <v>1939.33862702996</v>
       </c>
       <c r="D200">
         <v>293591</v>
@@ -26469,13 +26466,13 @@
     </row>
     <row r="201" spans="1:41">
       <c r="A201" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B201">
         <v>0</v>
       </c>
       <c r="C201">
-        <v>1570</v>
+        <v>1577.487171555845</v>
       </c>
       <c r="D201">
         <v>310000</v>
@@ -26591,13 +26588,13 @@
     </row>
     <row r="202" spans="1:41">
       <c r="A202" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B202">
         <v>0</v>
       </c>
       <c r="C202">
-        <v>8510</v>
+        <v>8841.561277324312</v>
       </c>
       <c r="D202">
         <v>0</v>
@@ -26713,13 +26710,13 @@
     </row>
     <row r="203" spans="1:41">
       <c r="A203" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B203">
         <v>0</v>
       </c>
       <c r="C203">
-        <v>5540</v>
+        <v>5660.517066940175</v>
       </c>
       <c r="D203">
         <v>2000000</v>
@@ -26821,7 +26818,7 @@
         <v>1</v>
       </c>
       <c r="AL203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM203">
         <v>0</v>
@@ -26835,13 +26832,13 @@
     </row>
     <row r="204" spans="1:41">
       <c r="A204" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B204">
         <v>0</v>
       </c>
       <c r="C204">
-        <v>14970</v>
+        <v>16534.26826227221</v>
       </c>
       <c r="D204">
         <v>0</v>
@@ -26943,7 +26940,7 @@
         <v>1</v>
       </c>
       <c r="AL204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM204">
         <v>0</v>
@@ -26957,13 +26954,13 @@
     </row>
     <row r="205" spans="1:41">
       <c r="A205" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B205">
         <v>0</v>
       </c>
       <c r="C205">
-        <v>10710</v>
+        <v>10883.31535948899</v>
       </c>
       <c r="D205">
         <v>0</v>
@@ -27079,13 +27076,13 @@
     </row>
     <row r="206" spans="1:41">
       <c r="A206" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B206">
         <v>0</v>
       </c>
       <c r="C206">
-        <v>1990</v>
+        <v>2024.117324382548</v>
       </c>
       <c r="D206">
         <v>0</v>
@@ -27201,13 +27198,13 @@
     </row>
     <row r="207" spans="1:41">
       <c r="A207" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B207">
         <v>0</v>
       </c>
       <c r="C207">
-        <v>11080</v>
+        <v>11627.81065059172</v>
       </c>
       <c r="D207">
         <v>0</v>
@@ -27323,13 +27320,13 @@
     </row>
     <row r="208" spans="1:41">
       <c r="A208" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B208">
         <v>0</v>
       </c>
       <c r="C208">
-        <v>12340</v>
+        <v>13455.83781255333</v>
       </c>
       <c r="D208">
         <v>0</v>
@@ -27445,13 +27442,13 @@
     </row>
     <row r="209" spans="1:41">
       <c r="A209" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B209">
         <v>0</v>
       </c>
       <c r="C209">
-        <v>6320</v>
+        <v>6711.616186806423</v>
       </c>
       <c r="D209">
         <v>2970000</v>
@@ -27567,13 +27564,13 @@
     </row>
     <row r="210" spans="1:41">
       <c r="A210" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B210">
         <v>0</v>
       </c>
       <c r="C210">
-        <v>4870</v>
+        <v>4921.848409120176</v>
       </c>
       <c r="D210">
         <v>221660</v>
@@ -27689,13 +27686,13 @@
     </row>
     <row r="211" spans="1:41">
       <c r="A211" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B211">
         <v>0</v>
       </c>
       <c r="C211">
-        <v>3220</v>
+        <v>3179.859210303226</v>
       </c>
       <c r="D211">
         <v>0</v>
@@ -27797,7 +27794,7 @@
         <v>1</v>
       </c>
       <c r="AL211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM211">
         <v>0</v>
@@ -27811,13 +27808,13 @@
     </row>
     <row r="212" spans="1:41">
       <c r="A212" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B212">
         <v>0</v>
       </c>
       <c r="C212">
-        <v>4480</v>
+        <v>4479.398934239905</v>
       </c>
       <c r="D212">
         <v>0</v>
@@ -27933,13 +27930,13 @@
     </row>
     <row r="213" spans="1:41">
       <c r="A213" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B213">
         <v>0</v>
       </c>
       <c r="C213">
-        <v>4970</v>
+        <v>5360.226632400601</v>
       </c>
       <c r="D213">
         <v>0</v>
@@ -28055,13 +28052,13 @@
     </row>
     <row r="214" spans="1:41">
       <c r="A214" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B214">
         <v>0</v>
       </c>
       <c r="C214">
-        <v>12060</v>
+        <v>12574.90356995006</v>
       </c>
       <c r="D214">
         <v>0</v>
@@ -28177,13 +28174,13 @@
     </row>
     <row r="215" spans="1:41">
       <c r="A215" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B215">
         <v>0</v>
       </c>
       <c r="C215">
-        <v>11980</v>
+        <v>14179.19231490798</v>
       </c>
       <c r="D215">
         <v>0</v>
@@ -28299,13 +28296,13 @@
     </row>
     <row r="216" spans="1:41">
       <c r="A216" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B216">
         <v>1</v>
       </c>
       <c r="C216">
-        <v>890</v>
+        <v>822.1883388417289</v>
       </c>
       <c r="D216">
         <v>0</v>
@@ -28421,13 +28418,13 @@
     </row>
     <row r="217" spans="1:41">
       <c r="A217" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B217">
         <v>0</v>
       </c>
       <c r="C217">
-        <v>5050</v>
+        <v>4961.234688573883</v>
       </c>
       <c r="D217">
         <v>0</v>
@@ -28543,13 +28540,13 @@
     </row>
     <row r="218" spans="1:41">
       <c r="A218" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B218">
         <v>0</v>
       </c>
-      <c r="C218" t="s">
-        <v>73</v>
+      <c r="C218">
+        <v>0</v>
       </c>
       <c r="D218">
         <v>0</v>
@@ -28665,13 +28662,13 @@
     </row>
     <row r="219" spans="1:41">
       <c r="A219" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B219">
         <v>0</v>
       </c>
       <c r="C219">
-        <v>2610</v>
+        <v>2264.394087033834</v>
       </c>
       <c r="D219">
         <v>1840000</v>
@@ -28787,13 +28784,13 @@
     </row>
     <row r="220" spans="1:41">
       <c r="A220" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B220">
         <v>0</v>
       </c>
       <c r="C220">
-        <v>1360</v>
+        <v>1410.426304742003</v>
       </c>
       <c r="D220">
         <v>0</v>
@@ -28909,13 +28906,13 @@
     </row>
     <row r="221" spans="1:41">
       <c r="A221" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B221">
         <v>0</v>
       </c>
       <c r="C221">
-        <v>3010</v>
+        <v>3270.619489853285</v>
       </c>
       <c r="D221">
         <v>0</v>
@@ -29031,13 +29028,13 @@
     </row>
     <row r="222" spans="1:41">
       <c r="A222" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B222">
         <v>0</v>
       </c>
       <c r="C222">
-        <v>880</v>
+        <v>921.177038530965</v>
       </c>
       <c r="D222">
         <v>0</v>
@@ -29153,13 +29150,13 @@
     </row>
     <row r="223" spans="1:41">
       <c r="A223" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B223">
         <v>1</v>
       </c>
       <c r="C223">
-        <v>1010</v>
+        <v>1025.892297838403</v>
       </c>
       <c r="D223">
         <v>0</v>
@@ -29275,13 +29272,13 @@
     </row>
     <row r="224" spans="1:41">
       <c r="A224" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B224">
         <v>1</v>
       </c>
       <c r="C224">
-        <v>610</v>
+        <v>612.032557723897</v>
       </c>
       <c r="D224">
         <v>0</v>
@@ -29397,13 +29394,13 @@
     </row>
     <row r="225" spans="1:41">
       <c r="A225" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B225">
         <v>0</v>
       </c>
       <c r="C225">
-        <v>1090</v>
+        <v>992.8781394745556</v>
       </c>
       <c r="D225">
         <v>0</v>
@@ -29519,13 +29516,13 @@
     </row>
     <row r="226" spans="1:41">
       <c r="A226" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B226">
         <v>0</v>
       </c>
       <c r="C226">
-        <v>2850</v>
+        <v>3014.578744505088</v>
       </c>
       <c r="D226">
         <v>0</v>
@@ -29641,13 +29638,13 @@
     </row>
     <row r="227" spans="1:41">
       <c r="A227" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B227">
         <v>0</v>
       </c>
       <c r="C227">
-        <v>1020</v>
+        <v>787.2332657022084</v>
       </c>
       <c r="D227">
         <v>0</v>
@@ -29763,13 +29760,13 @@
     </row>
     <row r="228" spans="1:41">
       <c r="A228" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B228">
         <v>1</v>
       </c>
       <c r="C228">
-        <v>3230</v>
+        <v>838.188712186125</v>
       </c>
       <c r="D228">
         <v>0</v>
@@ -29885,13 +29882,13 @@
     </row>
     <row r="229" spans="1:41">
       <c r="A229" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B229">
         <v>0</v>
       </c>
       <c r="C229">
-        <v>1370</v>
+        <v>1385.890384668919</v>
       </c>
       <c r="D229">
         <v>1750000</v>
@@ -30007,13 +30004,13 @@
     </row>
     <row r="230" spans="1:41">
       <c r="A230" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B230">
         <v>0</v>
       </c>
       <c r="C230">
-        <v>4410</v>
+        <v>4209.874800894355</v>
       </c>
       <c r="D230">
         <v>0</v>
@@ -30129,13 +30126,13 @@
     </row>
     <row r="231" spans="1:41">
       <c r="A231" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B231">
         <v>0</v>
       </c>
       <c r="C231">
-        <v>5010</v>
+        <v>4734.214559592758</v>
       </c>
       <c r="D231">
         <v>0</v>
@@ -30251,13 +30248,13 @@
     </row>
     <row r="232" spans="1:41">
       <c r="A232" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B232">
         <v>0</v>
       </c>
       <c r="C232">
-        <v>7220</v>
+        <v>7014.835624747019</v>
       </c>
       <c r="D232">
         <v>0</v>
@@ -30373,13 +30370,13 @@
     </row>
     <row r="233" spans="1:41">
       <c r="A233" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B233">
         <v>0</v>
       </c>
       <c r="C233">
-        <v>4810</v>
+        <v>4645.281601355389</v>
       </c>
       <c r="D233">
         <v>0</v>
@@ -30495,13 +30492,13 @@
     </row>
     <row r="234" spans="1:41">
       <c r="A234" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B234">
         <v>0</v>
       </c>
       <c r="C234">
-        <v>2190</v>
+        <v>2580.841309585291</v>
       </c>
       <c r="D234">
         <v>0</v>
@@ -30617,13 +30614,13 @@
     </row>
     <row r="235" spans="1:41">
       <c r="A235" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B235">
         <v>0</v>
       </c>
       <c r="C235">
-        <v>8620</v>
+        <v>8415.999185225515</v>
       </c>
       <c r="D235">
         <v>0</v>
@@ -30739,13 +30736,13 @@
     </row>
     <row r="236" spans="1:41">
       <c r="A236" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B236">
         <v>0</v>
       </c>
       <c r="C236">
-        <v>6379.166666666667</v>
+        <v>5981.277566091532</v>
       </c>
       <c r="D236">
         <v>0</v>
@@ -30861,13 +30858,13 @@
     </row>
     <row r="237" spans="1:41">
       <c r="A237" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B237">
         <v>0</v>
       </c>
       <c r="C237">
-        <v>11230</v>
+        <v>11678.13078702468</v>
       </c>
       <c r="D237">
         <v>0</v>
@@ -30983,13 +30980,13 @@
     </row>
     <row r="238" spans="1:41">
       <c r="A238" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B238">
         <v>0</v>
       </c>
       <c r="C238">
-        <v>6860</v>
+        <v>6695.082283311516</v>
       </c>
       <c r="D238">
         <v>0</v>
@@ -31105,7 +31102,7 @@
     </row>
     <row r="239" spans="1:41">
       <c r="A239" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B239">
         <v>0</v>
@@ -31227,13 +31224,13 @@
     </row>
     <row r="240" spans="1:41">
       <c r="A240" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B240">
         <v>1</v>
       </c>
       <c r="C240">
-        <v>4170</v>
+        <v>3748.449444923865</v>
       </c>
       <c r="D240">
         <v>0</v>
@@ -31349,13 +31346,13 @@
     </row>
     <row r="241" spans="1:41">
       <c r="A241" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B241">
         <v>0</v>
       </c>
       <c r="C241">
-        <v>11890</v>
+        <v>10649.8372874572</v>
       </c>
       <c r="D241">
         <v>0</v>
@@ -31471,13 +31468,13 @@
     </row>
     <row r="242" spans="1:41">
       <c r="A242" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B242">
         <v>0</v>
       </c>
       <c r="C242">
-        <v>2250</v>
+        <v>2094.024217383061</v>
       </c>
       <c r="D242">
         <v>0</v>
@@ -31593,13 +31590,13 @@
     </row>
     <row r="243" spans="1:41">
       <c r="A243" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B243">
         <v>1</v>
       </c>
       <c r="C243">
-        <v>650</v>
+        <v>692.4450379203138</v>
       </c>
       <c r="D243">
         <v>0</v>
@@ -31715,13 +31712,13 @@
     </row>
     <row r="244" spans="1:41">
       <c r="A244" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B244">
         <v>1</v>
       </c>
       <c r="C244">
-        <v>250</v>
+        <v>238.8160458251716</v>
       </c>
       <c r="D244">
         <v>0</v>
@@ -31837,13 +31834,13 @@
     </row>
     <row r="245" spans="1:41">
       <c r="A245" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B245">
         <v>0</v>
       </c>
       <c r="C245">
-        <v>5930</v>
+        <v>5325.160106166602</v>
       </c>
       <c r="D245">
         <v>0</v>
@@ -31959,13 +31956,13 @@
     </row>
     <row r="246" spans="1:41">
       <c r="A246" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B246">
         <v>0</v>
       </c>
       <c r="C246">
-        <v>7290</v>
+        <v>6911.59200404802</v>
       </c>
       <c r="D246">
         <v>0</v>
@@ -32081,13 +32078,13 @@
     </row>
     <row r="247" spans="1:41">
       <c r="A247" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B247">
         <v>0</v>
       </c>
       <c r="C247">
-        <v>9150</v>
+        <v>8689.96516770511</v>
       </c>
       <c r="D247">
         <v>0</v>
@@ -32203,13 +32200,13 @@
     </row>
     <row r="248" spans="1:41">
       <c r="A248" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B248">
         <v>0</v>
       </c>
       <c r="C248">
-        <v>6280</v>
+        <v>6051.685746144485</v>
       </c>
       <c r="D248">
         <v>227110.6666666667</v>
@@ -32325,13 +32322,13 @@
     </row>
     <row r="249" spans="1:41">
       <c r="A249" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B249">
         <v>1</v>
       </c>
-      <c r="C249" t="s">
-        <v>73</v>
+      <c r="C249">
+        <v>0</v>
       </c>
       <c r="D249">
         <v>0</v>
@@ -32447,13 +32444,13 @@
     </row>
     <row r="250" spans="1:41">
       <c r="A250" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B250">
         <v>0</v>
       </c>
       <c r="C250">
-        <v>5390</v>
+        <v>5122.180090208862</v>
       </c>
       <c r="D250">
         <v>221660</v>
@@ -32569,13 +32566,13 @@
     </row>
     <row r="251" spans="1:41">
       <c r="A251" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B251">
         <v>0</v>
       </c>
       <c r="C251">
-        <v>3210</v>
+        <v>3156.723844635973</v>
       </c>
       <c r="D251">
         <v>227110.6666666667</v>
@@ -32691,13 +32688,13 @@
     </row>
     <row r="252" spans="1:41">
       <c r="A252" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B252">
         <v>1</v>
       </c>
       <c r="C252">
-        <v>410</v>
+        <v>389.9389667216314</v>
       </c>
       <c r="D252">
         <v>0</v>
@@ -32813,13 +32810,13 @@
     </row>
     <row r="253" spans="1:41">
       <c r="A253" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B253">
         <v>0</v>
       </c>
       <c r="C253">
-        <v>2970</v>
+        <v>2379.668184479739</v>
       </c>
       <c r="D253">
         <v>0</v>
@@ -32935,13 +32932,13 @@
     </row>
     <row r="254" spans="1:41">
       <c r="A254" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B254">
         <v>0</v>
       </c>
       <c r="C254">
-        <v>9080</v>
+        <v>9258.881972662079</v>
       </c>
       <c r="D254">
         <v>0</v>
@@ -33057,13 +33054,13 @@
     </row>
     <row r="255" spans="1:41">
       <c r="A255" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B255">
         <v>1</v>
       </c>
       <c r="C255">
-        <v>480</v>
+        <v>783.2666928108922</v>
       </c>
       <c r="D255">
         <v>0</v>
@@ -33179,13 +33176,13 @@
     </row>
     <row r="256" spans="1:41">
       <c r="A256" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B256">
         <v>0</v>
       </c>
       <c r="C256">
-        <v>3100</v>
+        <v>2999.422762626143</v>
       </c>
       <c r="D256">
         <v>227110.6666666667</v>
@@ -33301,13 +33298,13 @@
     </row>
     <row r="257" spans="1:41">
       <c r="A257" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B257">
         <v>1</v>
       </c>
       <c r="C257">
-        <v>630</v>
+        <v>561.9866500362131</v>
       </c>
       <c r="D257">
         <v>0</v>
@@ -33423,13 +33420,13 @@
     </row>
     <row r="258" spans="1:41">
       <c r="A258" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B258">
         <v>1</v>
       </c>
       <c r="C258">
-        <v>13860</v>
+        <v>18254.09644617555</v>
       </c>
       <c r="D258">
         <v>0</v>
@@ -33545,13 +33542,13 @@
     </row>
     <row r="259" spans="1:41">
       <c r="A259" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B259">
         <v>1</v>
       </c>
       <c r="C259">
-        <v>760</v>
+        <v>701.4459636783288</v>
       </c>
       <c r="D259">
         <v>0</v>
@@ -33653,7 +33650,7 @@
         <v>1</v>
       </c>
       <c r="AL259">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM259">
         <v>1</v>
@@ -33667,13 +33664,13 @@
     </row>
     <row r="260" spans="1:41">
       <c r="A260" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B260">
         <v>0</v>
       </c>
       <c r="C260">
-        <v>1950</v>
+        <v>1982.009737844954</v>
       </c>
       <c r="D260">
         <v>293591</v>
@@ -33789,13 +33786,13 @@
     </row>
     <row r="261" spans="1:41">
       <c r="A261" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B261">
         <v>0</v>
       </c>
       <c r="C261">
-        <v>1480</v>
+        <v>1469.177610078392</v>
       </c>
       <c r="D261">
         <v>0</v>
@@ -33911,13 +33908,13 @@
     </row>
     <row r="262" spans="1:41">
       <c r="A262" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B262">
         <v>0</v>
       </c>
       <c r="C262">
-        <v>3580</v>
+        <v>3421.273520448287</v>
       </c>
       <c r="D262">
         <v>0</v>
@@ -34033,13 +34030,13 @@
     </row>
     <row r="263" spans="1:41">
       <c r="A263" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B263">
         <v>0</v>
       </c>
       <c r="C263">
-        <v>1050</v>
+        <v>1000.829216794104</v>
       </c>
       <c r="D263">
         <v>0</v>
@@ -34155,13 +34152,13 @@
     </row>
     <row r="264" spans="1:41">
       <c r="A264" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B264">
         <v>0</v>
       </c>
       <c r="C264">
-        <v>1040</v>
+        <v>905.1656680417188</v>
       </c>
       <c r="D264">
         <v>0</v>
@@ -34277,13 +34274,13 @@
     </row>
     <row r="265" spans="1:41">
       <c r="A265" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B265">
         <v>1</v>
       </c>
       <c r="C265">
-        <v>560</v>
+        <v>564.5208442217756</v>
       </c>
       <c r="D265">
         <v>0</v>
@@ -34399,13 +34396,13 @@
     </row>
     <row r="266" spans="1:41">
       <c r="A266" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B266">
         <v>1</v>
       </c>
       <c r="C266">
-        <v>730</v>
+        <v>684.6474015015979</v>
       </c>
       <c r="D266">
         <v>0</v>
@@ -34521,13 +34518,13 @@
     </row>
     <row r="267" spans="1:41">
       <c r="A267" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B267">
         <v>1</v>
       </c>
       <c r="C267">
-        <v>550</v>
+        <v>513.7390871590731</v>
       </c>
       <c r="D267">
         <v>0</v>
@@ -34643,13 +34640,13 @@
     </row>
     <row r="268" spans="1:41">
       <c r="A268" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B268">
         <v>0</v>
       </c>
       <c r="C268">
-        <v>5690</v>
+        <v>5668.570049722986</v>
       </c>
       <c r="D268">
         <v>0</v>
@@ -34765,13 +34762,13 @@
     </row>
     <row r="269" spans="1:41">
       <c r="A269" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B269">
         <v>0</v>
       </c>
       <c r="C269">
-        <v>1690</v>
+        <v>1657.651524528445</v>
       </c>
       <c r="D269">
         <v>310000</v>
@@ -34887,13 +34884,13 @@
     </row>
     <row r="270" spans="1:41">
       <c r="A270" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B270">
         <v>1</v>
       </c>
       <c r="C270">
-        <v>380</v>
+        <v>495.763971160512</v>
       </c>
       <c r="D270">
         <v>0</v>
@@ -35009,7 +35006,7 @@
     </row>
     <row r="271" spans="1:41">
       <c r="A271" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B271">
         <v>0</v>
@@ -35131,13 +35128,13 @@
     </row>
     <row r="272" spans="1:41">
       <c r="A272" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B272">
         <v>0</v>
       </c>
       <c r="C272">
-        <v>9560</v>
+        <v>9541.060212621274</v>
       </c>
       <c r="D272">
         <v>0</v>
@@ -35253,13 +35250,13 @@
     </row>
     <row r="273" spans="1:41">
       <c r="A273" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B273">
         <v>0</v>
       </c>
       <c r="C273">
-        <v>4760</v>
+        <v>4394.543881413723</v>
       </c>
       <c r="D273">
         <v>0</v>
@@ -35375,13 +35372,13 @@
     </row>
     <row r="274" spans="1:41">
       <c r="A274" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B274">
         <v>0</v>
       </c>
       <c r="C274">
-        <v>5790</v>
+        <v>5642.578115155247</v>
       </c>
       <c r="D274">
         <v>0</v>
@@ -35497,13 +35494,13 @@
     </row>
     <row r="275" spans="1:41">
       <c r="A275" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B275">
         <v>1</v>
       </c>
       <c r="C275">
-        <v>570</v>
+        <v>528.6449273841434</v>
       </c>
       <c r="D275">
         <v>0</v>
@@ -35619,7 +35616,7 @@
     </row>
     <row r="276" spans="1:41">
       <c r="A276" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B276">
         <v>1</v>
@@ -35741,13 +35738,13 @@
     </row>
     <row r="277" spans="1:41">
       <c r="A277" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B277">
         <v>0</v>
       </c>
       <c r="C277">
-        <v>5790</v>
+        <v>5745.422744292303</v>
       </c>
       <c r="D277">
         <v>0</v>
@@ -35849,7 +35846,7 @@
         <v>1</v>
       </c>
       <c r="AL277">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM277">
         <v>1</v>
@@ -35863,7 +35860,7 @@
     </row>
     <row r="278" spans="1:41">
       <c r="A278" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B278">
         <v>0</v>
@@ -35985,13 +35982,13 @@
     </row>
     <row r="279" spans="1:41">
       <c r="A279" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B279">
         <v>1</v>
       </c>
       <c r="C279">
-        <v>1330</v>
+        <v>1291.622214254295</v>
       </c>
       <c r="D279">
         <v>0</v>
@@ -36107,13 +36104,13 @@
     </row>
     <row r="280" spans="1:41">
       <c r="A280" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B280">
         <v>0</v>
       </c>
-      <c r="C280" t="s">
-        <v>73</v>
+      <c r="C280">
+        <v>0</v>
       </c>
       <c r="D280">
         <v>0</v>
@@ -36229,13 +36226,13 @@
     </row>
     <row r="281" spans="1:41">
       <c r="A281" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B281">
         <v>1</v>
       </c>
       <c r="C281">
-        <v>1710</v>
+        <v>1745.10167474004</v>
       </c>
       <c r="D281">
         <v>369896</v>
@@ -36351,13 +36348,13 @@
     </row>
     <row r="282" spans="1:41">
       <c r="A282" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B282">
         <v>0</v>
       </c>
       <c r="C282">
-        <v>810</v>
+        <v>788.439151581443</v>
       </c>
       <c r="D282">
         <v>0</v>
@@ -36473,13 +36470,13 @@
     </row>
     <row r="283" spans="1:41">
       <c r="A283" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B283">
         <v>0</v>
       </c>
       <c r="C283">
-        <v>1150</v>
+        <v>827.1129979572879</v>
       </c>
       <c r="D283">
         <v>0</v>
@@ -36595,13 +36592,13 @@
     </row>
     <row r="284" spans="1:41">
       <c r="A284" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B284">
         <v>0</v>
       </c>
       <c r="C284">
-        <v>13370</v>
+        <v>12981.14011088224</v>
       </c>
       <c r="D284">
         <v>0</v>
@@ -36717,13 +36714,13 @@
     </row>
     <row r="285" spans="1:41">
       <c r="A285" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B285">
         <v>0</v>
       </c>
       <c r="C285">
-        <v>1540</v>
+        <v>1443.492614888721</v>
       </c>
       <c r="D285">
         <v>0</v>
@@ -36839,13 +36836,13 @@
     </row>
     <row r="286" spans="1:41">
       <c r="A286" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B286">
         <v>0</v>
       </c>
       <c r="C286">
-        <v>10050</v>
+        <v>9690.869064532331</v>
       </c>
       <c r="D286">
         <v>0</v>
@@ -36961,13 +36958,13 @@
     </row>
     <row r="287" spans="1:41">
       <c r="A287" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B287">
         <v>0</v>
       </c>
       <c r="C287">
-        <v>3650</v>
+        <v>3487.613616731733</v>
       </c>
       <c r="D287">
         <v>0</v>
@@ -37083,13 +37080,13 @@
     </row>
     <row r="288" spans="1:41">
       <c r="A288" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B288">
         <v>0</v>
       </c>
       <c r="C288">
-        <v>16840</v>
+        <v>16636.68383079244</v>
       </c>
       <c r="D288">
         <v>0</v>
@@ -37191,7 +37188,7 @@
         <v>1</v>
       </c>
       <c r="AL288">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM288">
         <v>0</v>
@@ -37205,13 +37202,13 @@
     </row>
     <row r="289" spans="1:41">
       <c r="A289" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B289">
         <v>0</v>
       </c>
       <c r="C289">
-        <v>5170</v>
+        <v>4588.147655773832</v>
       </c>
       <c r="D289">
         <v>0</v>
@@ -37327,13 +37324,13 @@
     </row>
     <row r="290" spans="1:41">
       <c r="A290" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B290">
         <v>0</v>
       </c>
       <c r="C290">
-        <v>14350</v>
+        <v>14035.67913082598</v>
       </c>
       <c r="D290">
         <v>0</v>
@@ -37449,13 +37446,13 @@
     </row>
     <row r="291" spans="1:41">
       <c r="A291" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B291">
         <v>0</v>
       </c>
       <c r="C291">
-        <v>1230</v>
+        <v>1223.631935023299</v>
       </c>
       <c r="D291">
         <v>0</v>
@@ -37571,13 +37568,13 @@
     </row>
     <row r="292" spans="1:41">
       <c r="A292" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B292">
         <v>0</v>
       </c>
       <c r="C292">
-        <v>670</v>
+        <v>719.6981727039259</v>
       </c>
       <c r="D292">
         <v>0</v>
@@ -37693,13 +37690,13 @@
     </row>
     <row r="293" spans="1:41">
       <c r="A293" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B293">
         <v>0</v>
       </c>
       <c r="C293">
-        <v>7140</v>
+        <v>6122.43208981298</v>
       </c>
       <c r="D293">
         <v>0</v>
@@ -37815,13 +37812,13 @@
     </row>
     <row r="294" spans="1:41">
       <c r="A294" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B294">
         <v>0</v>
       </c>
       <c r="C294">
-        <v>7590</v>
+        <v>7179.116970062444</v>
       </c>
       <c r="D294">
         <v>0</v>
@@ -37937,13 +37934,13 @@
     </row>
     <row r="295" spans="1:41">
       <c r="A295" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B295">
         <v>0</v>
       </c>
       <c r="C295">
-        <v>49480</v>
+        <v>45276.87433542487</v>
       </c>
       <c r="D295">
         <v>0</v>
@@ -38059,13 +38056,13 @@
     </row>
     <row r="296" spans="1:41">
       <c r="A296" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B296">
         <v>1</v>
       </c>
       <c r="C296">
-        <v>670</v>
+        <v>683.460336640684</v>
       </c>
       <c r="D296">
         <v>0</v>
@@ -38181,13 +38178,13 @@
     </row>
     <row r="297" spans="1:41">
       <c r="A297" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B297">
         <v>1</v>
       </c>
       <c r="C297">
-        <v>1240</v>
+        <v>1128.507454946512</v>
       </c>
       <c r="D297">
         <v>0</v>
@@ -38303,13 +38300,13 @@
     </row>
     <row r="298" spans="1:41">
       <c r="A298" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B298">
         <v>1</v>
       </c>
       <c r="C298">
-        <v>4780</v>
+        <v>3796.882621798447</v>
       </c>
       <c r="D298">
         <v>0</v>
@@ -38425,13 +38422,13 @@
     </row>
     <row r="299" spans="1:41">
       <c r="A299" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B299">
         <v>0</v>
       </c>
       <c r="C299">
-        <v>12870</v>
+        <v>10784.63069920566</v>
       </c>
       <c r="D299">
         <v>0</v>
@@ -38547,13 +38544,13 @@
     </row>
     <row r="300" spans="1:41">
       <c r="A300" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B300">
         <v>0</v>
       </c>
       <c r="C300">
-        <v>2590</v>
+        <v>2201.396847776877</v>
       </c>
       <c r="D300">
         <v>0</v>
@@ -38669,13 +38666,13 @@
     </row>
     <row r="301" spans="1:41">
       <c r="A301" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B301">
         <v>1</v>
       </c>
       <c r="C301">
-        <v>690</v>
+        <v>711.0361291687414</v>
       </c>
       <c r="D301">
         <v>0</v>
@@ -38791,13 +38788,13 @@
     </row>
     <row r="302" spans="1:41">
       <c r="A302" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B302">
         <v>1</v>
       </c>
       <c r="C302">
-        <v>260</v>
+        <v>242.8459946574492</v>
       </c>
       <c r="D302">
         <v>0</v>
@@ -38913,13 +38910,13 @@
     </row>
     <row r="303" spans="1:41">
       <c r="A303" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B303">
         <v>0</v>
       </c>
       <c r="C303">
-        <v>6770</v>
+        <v>5710.587873377512</v>
       </c>
       <c r="D303">
         <v>0</v>
@@ -39035,13 +39032,13 @@
     </row>
     <row r="304" spans="1:41">
       <c r="A304" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B304">
         <v>0</v>
       </c>
       <c r="C304">
-        <v>7910</v>
+        <v>7200.731056811853</v>
       </c>
       <c r="D304">
         <v>0</v>
@@ -39157,13 +39154,13 @@
     </row>
     <row r="305" spans="1:41">
       <c r="A305" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B305">
         <v>0</v>
       </c>
       <c r="C305">
-        <v>9740</v>
+        <v>8785.741384666739</v>
       </c>
       <c r="D305">
         <v>0</v>
@@ -39279,13 +39276,13 @@
     </row>
     <row r="306" spans="1:41">
       <c r="A306" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B306">
         <v>0</v>
       </c>
       <c r="C306">
-        <v>6640</v>
+        <v>6203.843262938323</v>
       </c>
       <c r="D306">
         <v>227110.6666666667</v>
@@ -39401,13 +39398,13 @@
     </row>
     <row r="307" spans="1:41">
       <c r="A307" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B307">
         <v>1</v>
       </c>
-      <c r="C307" t="s">
-        <v>73</v>
+      <c r="C307">
+        <v>0</v>
       </c>
       <c r="D307">
         <v>0</v>
@@ -39523,13 +39520,13 @@
     </row>
     <row r="308" spans="1:41">
       <c r="A308" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B308">
         <v>0</v>
       </c>
       <c r="C308">
-        <v>5810</v>
+        <v>5295.682695961288</v>
       </c>
       <c r="D308">
         <v>0</v>
@@ -39645,13 +39642,13 @@
     </row>
     <row r="309" spans="1:41">
       <c r="A309" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B309">
         <v>0</v>
       </c>
       <c r="C309">
-        <v>3350</v>
+        <v>3212.740625904757</v>
       </c>
       <c r="D309">
         <v>227110.6666666667</v>
@@ -39767,13 +39764,13 @@
     </row>
     <row r="310" spans="1:41">
       <c r="A310" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B310">
         <v>1</v>
       </c>
       <c r="C310">
-        <v>470</v>
+        <v>419.1838602515346</v>
       </c>
       <c r="D310">
         <v>0</v>
@@ -39889,13 +39886,13 @@
     </row>
     <row r="311" spans="1:41">
       <c r="A311" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B311">
         <v>0</v>
       </c>
       <c r="C311">
-        <v>3290</v>
+        <v>2497.68592515536</v>
       </c>
       <c r="D311">
         <v>0</v>
@@ -40011,13 +40008,13 @@
     </row>
     <row r="312" spans="1:41">
       <c r="A312" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B312">
         <v>0</v>
       </c>
       <c r="C312">
-        <v>9330</v>
+        <v>9418.219737012016</v>
       </c>
       <c r="D312">
         <v>0</v>
@@ -40133,13 +40130,13 @@
     </row>
     <row r="313" spans="1:41">
       <c r="A313" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B313">
         <v>1</v>
       </c>
       <c r="C313">
-        <v>540</v>
+        <v>781.6818047779378</v>
       </c>
       <c r="D313">
         <v>0</v>
@@ -40255,13 +40252,13 @@
     </row>
     <row r="314" spans="1:41">
       <c r="A314" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B314">
         <v>0</v>
       </c>
       <c r="C314">
-        <v>3320</v>
+        <v>3056.152683606517</v>
       </c>
       <c r="D314">
         <v>227110.6666666667</v>
@@ -40377,13 +40374,13 @@
     </row>
     <row r="315" spans="1:41">
       <c r="A315" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B315">
         <v>1</v>
       </c>
       <c r="C315">
-        <v>640</v>
+        <v>565.0479699255185</v>
       </c>
       <c r="D315">
         <v>0</v>
@@ -40499,13 +40496,13 @@
     </row>
     <row r="316" spans="1:41">
       <c r="A316" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B316">
         <v>1</v>
       </c>
       <c r="C316">
-        <v>14020</v>
+        <v>16764.42871195103</v>
       </c>
       <c r="D316">
         <v>0</v>
@@ -40621,13 +40618,13 @@
     </row>
     <row r="317" spans="1:41">
       <c r="A317" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B317">
         <v>1</v>
       </c>
       <c r="C317">
-        <v>800</v>
+        <v>720.7128711178943</v>
       </c>
       <c r="D317">
         <v>0</v>
@@ -40729,7 +40726,7 @@
         <v>1</v>
       </c>
       <c r="AL317">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM317">
         <v>1</v>
@@ -40743,13 +40740,13 @@
     </row>
     <row r="318" spans="1:41">
       <c r="A318" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B318">
         <v>0</v>
       </c>
       <c r="C318">
-        <v>1990</v>
+        <v>2000.792448761861</v>
       </c>
       <c r="D318">
         <v>0</v>
@@ -40865,13 +40862,13 @@
     </row>
     <row r="319" spans="1:41">
       <c r="A319" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B319">
         <v>0</v>
       </c>
       <c r="C319">
-        <v>1520</v>
+        <v>1544.619247249133</v>
       </c>
       <c r="D319">
         <v>0</v>
@@ -40987,13 +40984,13 @@
     </row>
     <row r="320" spans="1:41">
       <c r="A320" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B320">
         <v>0</v>
       </c>
       <c r="C320">
-        <v>3730</v>
+        <v>3563.299863942833</v>
       </c>
       <c r="D320">
         <v>0</v>
@@ -41109,13 +41106,13 @@
     </row>
     <row r="321" spans="1:41">
       <c r="A321" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B321">
         <v>0</v>
       </c>
       <c r="C321">
-        <v>1130</v>
+        <v>1032.277326842402</v>
       </c>
       <c r="D321">
         <v>0</v>
@@ -41231,13 +41228,13 @@
     </row>
     <row r="322" spans="1:41">
       <c r="A322" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B322">
         <v>0</v>
       </c>
       <c r="C322">
-        <v>1190</v>
+        <v>984.2390336111606</v>
       </c>
       <c r="D322">
         <v>0</v>
@@ -41353,13 +41350,13 @@
     </row>
     <row r="323" spans="1:41">
       <c r="A323" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B323">
         <v>1</v>
       </c>
       <c r="C323">
-        <v>630</v>
+        <v>597.3813896804552</v>
       </c>
       <c r="D323">
         <v>0</v>
@@ -41475,13 +41472,13 @@
     </row>
     <row r="324" spans="1:41">
       <c r="A324" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B324">
         <v>1</v>
       </c>
       <c r="C324">
-        <v>780</v>
+        <v>680.3923729568069</v>
       </c>
       <c r="D324">
         <v>0</v>
@@ -41597,13 +41594,13 @@
     </row>
     <row r="325" spans="1:41">
       <c r="A325" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B325">
         <v>1</v>
       </c>
       <c r="C325">
-        <v>620</v>
+        <v>534.5063430177229</v>
       </c>
       <c r="D325">
         <v>0</v>
@@ -41719,13 +41716,13 @@
     </row>
     <row r="326" spans="1:41">
       <c r="A326" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B326">
         <v>0</v>
       </c>
       <c r="C326">
-        <v>6020</v>
+        <v>5883.040699025189</v>
       </c>
       <c r="D326">
         <v>0</v>
@@ -41841,13 +41838,13 @@
     </row>
     <row r="327" spans="1:41">
       <c r="A327" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B327">
         <v>0</v>
       </c>
       <c r="C327">
-        <v>1780</v>
+        <v>1716.389195271215</v>
       </c>
       <c r="D327">
         <v>0</v>
@@ -41963,13 +41960,13 @@
     </row>
     <row r="328" spans="1:41">
       <c r="A328" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B328">
         <v>1</v>
       </c>
       <c r="C328">
-        <v>400</v>
+        <v>503.3023574516347</v>
       </c>
       <c r="D328">
         <v>220460</v>
@@ -42085,7 +42082,7 @@
     </row>
     <row r="329" spans="1:41">
       <c r="A329" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B329">
         <v>0</v>
@@ -42207,13 +42204,13 @@
     </row>
     <row r="330" spans="1:41">
       <c r="A330" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B330">
         <v>0</v>
       </c>
       <c r="C330">
-        <v>10510</v>
+        <v>10027.34623102135</v>
       </c>
       <c r="D330">
         <v>0</v>
@@ -42329,13 +42326,13 @@
     </row>
     <row r="331" spans="1:41">
       <c r="A331" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B331">
         <v>0</v>
       </c>
       <c r="C331">
-        <v>5510</v>
+        <v>4699.493713911862</v>
       </c>
       <c r="D331">
         <v>0</v>
@@ -42451,13 +42448,13 @@
     </row>
     <row r="332" spans="1:41">
       <c r="A332" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B332">
         <v>0</v>
       </c>
       <c r="C332">
-        <v>6420</v>
+        <v>5919.20956823756</v>
       </c>
       <c r="D332">
         <v>0</v>
@@ -42573,13 +42570,13 @@
     </row>
     <row r="333" spans="1:41">
       <c r="A333" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B333">
         <v>1</v>
       </c>
       <c r="C333">
-        <v>380</v>
+        <v>335.38915520098</v>
       </c>
       <c r="D333">
         <v>0</v>
@@ -42695,7 +42692,7 @@
     </row>
     <row r="334" spans="1:41">
       <c r="A334" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B334">
         <v>1</v>
@@ -42817,13 +42814,13 @@
     </row>
     <row r="335" spans="1:41">
       <c r="A335" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B335">
         <v>0</v>
       </c>
       <c r="C335">
-        <v>6020</v>
+        <v>5955.175904294275</v>
       </c>
       <c r="D335">
         <v>0</v>
@@ -42925,7 +42922,7 @@
         <v>1</v>
       </c>
       <c r="AL335">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM335">
         <v>1</v>
@@ -42939,7 +42936,7 @@
     </row>
     <row r="336" spans="1:41">
       <c r="A336" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B336">
         <v>0</v>
@@ -43061,13 +43058,13 @@
     </row>
     <row r="337" spans="1:41">
       <c r="A337" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B337">
         <v>1</v>
       </c>
       <c r="C337">
-        <v>1360</v>
+        <v>1291.415042301529</v>
       </c>
       <c r="D337">
         <v>0</v>
@@ -43183,13 +43180,13 @@
     </row>
     <row r="338" spans="1:41">
       <c r="A338" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B338">
         <v>0</v>
       </c>
-      <c r="C338" t="s">
-        <v>73</v>
+      <c r="C338">
+        <v>0</v>
       </c>
       <c r="D338">
         <v>0</v>
@@ -43305,13 +43302,13 @@
     </row>
     <row r="339" spans="1:41">
       <c r="A339" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B339">
         <v>1</v>
       </c>
       <c r="C339">
-        <v>1210</v>
+        <v>1778.60982580794</v>
       </c>
       <c r="D339">
         <v>0</v>
@@ -43427,13 +43424,13 @@
     </row>
     <row r="340" spans="1:41">
       <c r="A340" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B340">
         <v>0</v>
       </c>
       <c r="C340">
-        <v>890</v>
+        <v>817.1226340535979</v>
       </c>
       <c r="D340">
         <v>0</v>
@@ -43549,13 +43546,13 @@
     </row>
     <row r="341" spans="1:41">
       <c r="A341" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B341">
         <v>0</v>
       </c>
       <c r="C341">
-        <v>1340</v>
+        <v>867.9372421617932</v>
       </c>
       <c r="D341">
         <v>0</v>
@@ -43671,13 +43668,13 @@
     </row>
     <row r="342" spans="1:41">
       <c r="A342" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B342">
         <v>0</v>
       </c>
       <c r="C342">
-        <v>15320</v>
+        <v>13541.20710895826</v>
       </c>
       <c r="D342">
         <v>0</v>
@@ -43793,13 +43790,13 @@
     </row>
     <row r="343" spans="1:41">
       <c r="A343" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B343">
         <v>0</v>
       </c>
       <c r="C343">
-        <v>1720</v>
+        <v>1505.810948829135</v>
       </c>
       <c r="D343">
         <v>0</v>
@@ -43915,13 +43912,13 @@
     </row>
     <row r="344" spans="1:41">
       <c r="A344" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B344">
         <v>0</v>
       </c>
       <c r="C344">
-        <v>10270</v>
+        <v>9693.722968944676</v>
       </c>
       <c r="D344">
         <v>0</v>
@@ -44037,13 +44034,13 @@
     </row>
     <row r="345" spans="1:41">
       <c r="A345" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B345">
         <v>0</v>
       </c>
       <c r="C345">
-        <v>3750</v>
+        <v>3405.472039138021</v>
       </c>
       <c r="D345">
         <v>0</v>
@@ -44159,13 +44156,13 @@
     </row>
     <row r="346" spans="1:41">
       <c r="A346" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B346">
         <v>0</v>
       </c>
       <c r="C346">
-        <v>18680</v>
+        <v>16895.92430113714</v>
       </c>
       <c r="D346">
         <v>0</v>
@@ -44267,7 +44264,7 @@
         <v>1</v>
       </c>
       <c r="AL346">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM346">
         <v>0</v>
@@ -44281,13 +44278,13 @@
     </row>
     <row r="347" spans="1:41">
       <c r="A347" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B347">
         <v>0</v>
       </c>
       <c r="C347">
-        <v>5510</v>
+        <v>4623.094427708719</v>
       </c>
       <c r="D347">
         <v>0</v>
@@ -44403,13 +44400,13 @@
     </row>
     <row r="348" spans="1:41">
       <c r="A348" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B348">
         <v>0</v>
       </c>
       <c r="C348">
-        <v>15270</v>
+        <v>14461.17437757394</v>
       </c>
       <c r="D348">
         <v>0</v>
@@ -44525,13 +44522,13 @@
     </row>
     <row r="349" spans="1:41">
       <c r="A349" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B349">
         <v>0</v>
       </c>
       <c r="C349">
-        <v>1320</v>
+        <v>1299.811672673934</v>
       </c>
       <c r="D349">
         <v>0</v>
@@ -44647,13 +44644,13 @@
     </row>
     <row r="350" spans="1:41">
       <c r="A350" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B350">
         <v>0</v>
       </c>
       <c r="C350">
-        <v>700</v>
+        <v>731.5588677998553</v>
       </c>
       <c r="D350">
         <v>0</v>
@@ -44769,13 +44766,13 @@
     </row>
     <row r="351" spans="1:41">
       <c r="A351" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B351">
         <v>0</v>
       </c>
       <c r="C351">
-        <v>7040</v>
+        <v>6035.282200984663</v>
       </c>
       <c r="D351">
         <v>0</v>
@@ -44891,13 +44888,13 @@
     </row>
     <row r="352" spans="1:41">
       <c r="A352" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B352">
         <v>0</v>
       </c>
       <c r="C352">
-        <v>7610</v>
+        <v>6978.952586250825</v>
       </c>
       <c r="D352">
         <v>0</v>
@@ -45013,13 +45010,13 @@
     </row>
     <row r="353" spans="1:41">
       <c r="A353" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B353">
         <v>0</v>
       </c>
       <c r="C353">
-        <v>48280</v>
+        <v>46249.20958865366</v>
       </c>
       <c r="D353">
         <v>0</v>
@@ -45135,13 +45132,13 @@
     </row>
     <row r="354" spans="1:41">
       <c r="A354" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B354">
         <v>1</v>
       </c>
       <c r="C354">
-        <v>700</v>
+        <v>698.3833464078615</v>
       </c>
       <c r="D354">
         <v>0</v>
@@ -45257,13 +45254,13 @@
     </row>
     <row r="355" spans="1:41">
       <c r="A355" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B355">
         <v>1</v>
       </c>
       <c r="C355">
-        <v>1440</v>
+        <v>1160.163390965724</v>
       </c>
       <c r="D355">
         <v>0</v>
@@ -45379,13 +45376,13 @@
     </row>
     <row r="356" spans="1:41">
       <c r="A356" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B356">
         <v>1</v>
       </c>
       <c r="C356">
-        <v>5010</v>
+        <v>3843.198240901342</v>
       </c>
       <c r="D356">
         <v>0</v>
@@ -45501,13 +45498,13 @@
     </row>
     <row r="357" spans="1:41">
       <c r="A357" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B357">
         <v>0</v>
       </c>
       <c r="C357">
-        <v>12350</v>
+        <v>10398.69400694643</v>
       </c>
       <c r="D357">
         <v>0</v>
@@ -45623,13 +45620,13 @@
     </row>
     <row r="358" spans="1:41">
       <c r="A358" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B358">
         <v>0</v>
       </c>
       <c r="C358">
-        <v>2830</v>
+        <v>2286.013198234259</v>
       </c>
       <c r="D358">
         <v>0</v>
@@ -45745,13 +45742,13 @@
     </row>
     <row r="359" spans="1:41">
       <c r="A359" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B359">
         <v>0</v>
       </c>
       <c r="C359">
-        <v>5300</v>
+        <v>5117.140026250586</v>
       </c>
       <c r="D359">
         <v>0</v>
@@ -45867,13 +45864,13 @@
     </row>
     <row r="360" spans="1:41">
       <c r="A360" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B360">
         <v>0</v>
       </c>
       <c r="C360">
-        <v>12100</v>
+        <v>11951.20944634967</v>
       </c>
       <c r="D360">
         <v>0</v>
@@ -45989,13 +45986,13 @@
     </row>
     <row r="361" spans="1:41">
       <c r="A361" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B361">
         <v>1</v>
       </c>
       <c r="C361">
-        <v>690</v>
+        <v>720.1523351943922</v>
       </c>
       <c r="D361">
         <v>0</v>
@@ -46111,13 +46108,13 @@
     </row>
     <row r="362" spans="1:41">
       <c r="A362" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B362">
         <v>1</v>
       </c>
       <c r="C362">
-        <v>260</v>
+        <v>245.326738733565</v>
       </c>
       <c r="D362">
         <v>0</v>
@@ -46233,13 +46230,13 @@
     </row>
     <row r="363" spans="1:41">
       <c r="A363" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B363">
         <v>0</v>
       </c>
       <c r="C363">
-        <v>14990</v>
+        <v>14561.32616430782</v>
       </c>
       <c r="D363">
         <v>0</v>
@@ -46355,13 +46352,13 @@
     </row>
     <row r="364" spans="1:41">
       <c r="A364" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B364">
         <v>0</v>
       </c>
       <c r="C364">
-        <v>7500</v>
+        <v>6103.590270484282</v>
       </c>
       <c r="D364">
         <v>0</v>
@@ -46477,13 +46474,13 @@
     </row>
     <row r="365" spans="1:41">
       <c r="A365" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B365">
         <v>0</v>
       </c>
       <c r="C365">
-        <v>8190</v>
+        <v>7449.08671983612</v>
       </c>
       <c r="D365">
         <v>0</v>
@@ -46599,13 +46596,13 @@
     </row>
     <row r="366" spans="1:41">
       <c r="A366" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B366">
         <v>0</v>
       </c>
       <c r="C366">
-        <v>2590</v>
+        <v>3008.669179463094</v>
       </c>
       <c r="D366">
         <v>0</v>
@@ -46721,13 +46718,13 @@
     </row>
     <row r="367" spans="1:41">
       <c r="A367" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B367">
         <v>0</v>
       </c>
       <c r="C367">
-        <v>10090</v>
+        <v>8993.526001840402</v>
       </c>
       <c r="D367">
         <v>0</v>
@@ -46843,13 +46840,13 @@
     </row>
     <row r="368" spans="1:41">
       <c r="A368" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B368">
         <v>0</v>
       </c>
       <c r="C368">
-        <v>6840</v>
+        <v>6255.426161047989</v>
       </c>
       <c r="D368">
         <v>0</v>
@@ -46965,13 +46962,13 @@
     </row>
     <row r="369" spans="1:41">
       <c r="A369" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B369">
         <v>1</v>
       </c>
-      <c r="C369" t="s">
-        <v>73</v>
+      <c r="C369">
+        <v>0</v>
       </c>
       <c r="D369">
         <v>0</v>
@@ -47087,13 +47084,13 @@
     </row>
     <row r="370" spans="1:41">
       <c r="A370" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B370">
         <v>0</v>
       </c>
       <c r="C370">
-        <v>6110</v>
+        <v>5412.131646018807</v>
       </c>
       <c r="D370">
         <v>0</v>
@@ -47209,13 +47206,13 @@
     </row>
     <row r="371" spans="1:41">
       <c r="A371" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B371">
         <v>0</v>
       </c>
       <c r="C371">
-        <v>3400</v>
+        <v>3252.634165082374</v>
       </c>
       <c r="D371">
         <v>0</v>
@@ -47331,13 +47328,13 @@
     </row>
     <row r="372" spans="1:41">
       <c r="A372" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B372">
         <v>1</v>
       </c>
       <c r="C372">
-        <v>550</v>
+        <v>449.4203771491282</v>
       </c>
       <c r="D372">
         <v>0</v>
@@ -47453,13 +47450,13 @@
     </row>
     <row r="373" spans="1:41">
       <c r="A373" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B373">
         <v>0</v>
       </c>
       <c r="C373">
-        <v>3450</v>
+        <v>2612.856880840196</v>
       </c>
       <c r="D373">
         <v>0</v>
@@ -47575,13 +47572,13 @@
     </row>
     <row r="374" spans="1:41">
       <c r="A374" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B374">
         <v>1</v>
       </c>
       <c r="C374">
-        <v>560</v>
+        <v>747.708731949503</v>
       </c>
       <c r="D374">
         <v>0</v>
@@ -47697,13 +47694,13 @@
     </row>
     <row r="375" spans="1:41">
       <c r="A375" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B375">
         <v>0</v>
       </c>
       <c r="C375">
-        <v>3460</v>
+        <v>3137.260298393558</v>
       </c>
       <c r="D375">
         <v>0</v>
@@ -47819,13 +47816,13 @@
     </row>
     <row r="376" spans="1:41">
       <c r="A376" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B376">
         <v>1</v>
       </c>
       <c r="C376">
-        <v>640</v>
+        <v>555.6050487299622</v>
       </c>
       <c r="D376">
         <v>0</v>
@@ -47941,13 +47938,13 @@
     </row>
     <row r="377" spans="1:41">
       <c r="A377" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B377">
         <v>1</v>
       </c>
       <c r="C377">
-        <v>830</v>
+        <v>730.3063521039821</v>
       </c>
       <c r="D377">
         <v>2500000</v>
@@ -48049,7 +48046,7 @@
         <v>1</v>
       </c>
       <c r="AL377">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM377">
         <v>1</v>
@@ -48063,13 +48060,13 @@
     </row>
     <row r="378" spans="1:41">
       <c r="A378" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B378">
         <v>0</v>
       </c>
       <c r="C378">
-        <v>1990</v>
+        <v>2025.814194788851</v>
       </c>
       <c r="D378">
         <v>0</v>
@@ -48185,13 +48182,13 @@
     </row>
     <row r="379" spans="1:41">
       <c r="A379" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B379">
         <v>0</v>
       </c>
       <c r="C379">
-        <v>13540</v>
+        <v>14165.70826399588</v>
       </c>
       <c r="D379">
         <v>0</v>
@@ -48307,13 +48304,13 @@
     </row>
     <row r="380" spans="1:41">
       <c r="A380" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B380">
         <v>0</v>
       </c>
       <c r="C380">
-        <v>3620</v>
+        <v>3692.97344616041</v>
       </c>
       <c r="D380">
         <v>0</v>
@@ -48429,13 +48426,13 @@
     </row>
     <row r="381" spans="1:41">
       <c r="A381" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B381">
         <v>0</v>
       </c>
       <c r="C381">
-        <v>6840</v>
+        <v>5344.331964200195</v>
       </c>
       <c r="D381">
         <v>0</v>
@@ -48551,13 +48548,13 @@
     </row>
     <row r="382" spans="1:41">
       <c r="A382" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B382">
         <v>0</v>
       </c>
       <c r="C382">
-        <v>1250</v>
+        <v>1003.510404110474</v>
       </c>
       <c r="D382">
         <v>0</v>
@@ -48673,13 +48670,13 @@
     </row>
     <row r="383" spans="1:41">
       <c r="A383" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B383">
         <v>0</v>
       </c>
       <c r="C383">
-        <v>7500</v>
+        <v>6753.607115829548</v>
       </c>
       <c r="D383">
         <v>0</v>
@@ -48795,13 +48792,13 @@
     </row>
     <row r="384" spans="1:41">
       <c r="A384" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B384">
         <v>1</v>
       </c>
       <c r="C384">
-        <v>630</v>
+        <v>586.2293607842975</v>
       </c>
       <c r="D384">
         <v>0</v>
@@ -48917,13 +48914,13 @@
     </row>
     <row r="385" spans="1:41">
       <c r="A385" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B385">
         <v>1</v>
       </c>
       <c r="C385">
-        <v>810</v>
+        <v>707.8672001573369</v>
       </c>
       <c r="D385">
         <v>2500000</v>
@@ -49039,13 +49036,13 @@
     </row>
     <row r="386" spans="1:41">
       <c r="A386" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B386">
         <v>1</v>
       </c>
       <c r="C386">
-        <v>1390</v>
+        <v>1692.460946584157</v>
       </c>
       <c r="D386">
         <v>0</v>
@@ -49161,13 +49158,13 @@
     </row>
     <row r="387" spans="1:41">
       <c r="A387" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B387">
         <v>0</v>
       </c>
       <c r="C387">
-        <v>10510</v>
+        <v>9839.050190896</v>
       </c>
       <c r="D387">
         <v>0</v>
@@ -49283,13 +49280,13 @@
     </row>
     <row r="388" spans="1:41">
       <c r="A388" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B388">
         <v>1</v>
       </c>
       <c r="C388">
-        <v>650</v>
+        <v>558.2093442539386</v>
       </c>
       <c r="D388">
         <v>0</v>
@@ -49405,13 +49402,13 @@
     </row>
     <row r="389" spans="1:41">
       <c r="A389" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B389">
         <v>0</v>
       </c>
       <c r="C389">
-        <v>5990</v>
+        <v>6112.52332875025</v>
       </c>
       <c r="D389">
         <v>0</v>
@@ -49527,13 +49524,13 @@
     </row>
     <row r="390" spans="1:41">
       <c r="A390" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B390">
         <v>1</v>
       </c>
       <c r="C390">
-        <v>770</v>
+        <v>711.3043470146426</v>
       </c>
       <c r="D390">
         <v>0</v>
@@ -49649,13 +49646,13 @@
     </row>
     <row r="391" spans="1:41">
       <c r="A391" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B391">
         <v>0</v>
       </c>
       <c r="C391">
-        <v>1850</v>
+        <v>1775.027517189621</v>
       </c>
       <c r="D391">
         <v>0</v>
@@ -49771,13 +49768,13 @@
     </row>
     <row r="392" spans="1:41">
       <c r="A392" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B392">
         <v>1</v>
       </c>
       <c r="C392">
-        <v>410</v>
+        <v>515.8271637832048</v>
       </c>
       <c r="D392">
         <v>220460</v>
@@ -49893,13 +49890,13 @@
     </row>
     <row r="393" spans="1:41">
       <c r="A393" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B393">
         <v>0</v>
       </c>
       <c r="C393">
-        <v>1320</v>
+        <v>1054.227974015008</v>
       </c>
       <c r="D393">
         <v>0</v>
@@ -50015,13 +50012,13 @@
     </row>
     <row r="394" spans="1:41">
       <c r="A394" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B394">
         <v>0</v>
       </c>
       <c r="C394">
-        <v>5780</v>
+        <v>4861.287098802361</v>
       </c>
       <c r="D394">
         <v>0</v>
@@ -50137,13 +50134,13 @@
     </row>
     <row r="395" spans="1:41">
       <c r="A395" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B395">
         <v>0</v>
       </c>
       <c r="C395">
-        <v>6530</v>
+        <v>5996.49696468919</v>
       </c>
       <c r="D395">
         <v>0</v>
@@ -50259,7 +50256,7 @@
     </row>
     <row r="396" spans="1:41">
       <c r="A396" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B396">
         <v>0</v>
@@ -50381,13 +50378,13 @@
     </row>
     <row r="397" spans="1:41">
       <c r="A397" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B397">
         <v>0</v>
       </c>
       <c r="C397">
-        <v>6310</v>
+        <v>6301.696269820412</v>
       </c>
       <c r="D397">
         <v>240000</v>
@@ -50489,7 +50486,7 @@
         <v>1</v>
       </c>
       <c r="AL397">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM397">
         <v>1</v>
@@ -50503,13 +50500,13 @@
     </row>
     <row r="398" spans="1:41">
       <c r="A398" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B398">
         <v>1</v>
       </c>
       <c r="C398">
-        <v>720</v>
+        <v>723.2321880005983</v>
       </c>
       <c r="D398">
         <v>0</v>
@@ -50625,13 +50622,13 @@
     </row>
     <row r="399" spans="1:41">
       <c r="A399" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B399">
         <v>1</v>
       </c>
       <c r="C399">
-        <v>1380</v>
+        <v>1338.716747746975</v>
       </c>
       <c r="D399">
         <v>0</v>
@@ -50747,13 +50744,13 @@
     </row>
     <row r="400" spans="1:41">
       <c r="A400" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B400">
         <v>0</v>
       </c>
       <c r="C400">
-        <v>6330</v>
+        <v>6103.744960203087</v>
       </c>
       <c r="D400">
         <v>0</v>
@@ -50869,13 +50866,13 @@
     </row>
     <row r="401" spans="1:41">
       <c r="A401" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B401">
         <v>1</v>
       </c>
       <c r="C401">
-        <v>700</v>
+        <v>567.8342670439314</v>
       </c>
       <c r="D401">
         <v>0</v>
@@ -50991,13 +50988,13 @@
     </row>
     <row r="402" spans="1:41">
       <c r="A402" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B402">
         <v>0</v>
       </c>
-      <c r="C402" t="s">
-        <v>73</v>
+      <c r="C402">
+        <v>0</v>
       </c>
       <c r="D402">
         <v>0</v>
@@ -51113,13 +51110,13 @@
     </row>
     <row r="403" spans="1:41">
       <c r="A403" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B403">
         <v>1</v>
       </c>
       <c r="C403">
-        <v>1820</v>
+        <v>1782.74173912551</v>
       </c>
       <c r="D403">
         <v>0</v>
@@ -51235,13 +51232,13 @@
     </row>
     <row r="404" spans="1:41">
       <c r="A404" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B404">
         <v>0</v>
       </c>
       <c r="C404">
-        <v>970</v>
+        <v>846.386841468855</v>
       </c>
       <c r="D404">
         <v>0</v>
@@ -51357,13 +51354,13 @@
     </row>
     <row r="405" spans="1:41">
       <c r="A405" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B405">
         <v>0</v>
       </c>
       <c r="C405">
-        <v>1360</v>
+        <v>904.4750100240007</v>
       </c>
       <c r="D405">
         <v>0</v>
@@ -51479,7 +51476,7 @@
     </row>
     <row r="406" spans="1:41">
       <c r="A406" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B406">
         <v>0</v>
@@ -51601,13 +51598,13 @@
     </row>
     <row r="407" spans="1:41">
       <c r="A407" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B407">
         <v>0</v>
       </c>
       <c r="C407">
-        <v>18470</v>
+        <v>16635.54035994555</v>
       </c>
       <c r="D407">
         <v>0</v>
@@ -51709,7 +51706,7 @@
         <v>1</v>
       </c>
       <c r="AL407">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM407">
         <v>1</v>
@@ -51723,13 +51720,13 @@
     </row>
     <row r="408" spans="1:41">
       <c r="A408" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B408">
         <v>0</v>
       </c>
       <c r="C408">
-        <v>4160</v>
+        <v>4302.486544228166</v>
       </c>
       <c r="D408">
         <v>0</v>
@@ -51845,13 +51842,13 @@
     </row>
     <row r="409" spans="1:41">
       <c r="A409" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B409">
         <v>0</v>
       </c>
       <c r="C409">
-        <v>3560</v>
+        <v>3123.90008935853</v>
       </c>
       <c r="D409">
         <v>0</v>
@@ -51967,13 +51964,13 @@
     </row>
     <row r="410" spans="1:41">
       <c r="A410" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B410">
         <v>0</v>
       </c>
       <c r="C410">
-        <v>1880</v>
+        <v>1579.189101937001</v>
       </c>
       <c r="D410">
         <v>0</v>
@@ -52089,13 +52086,13 @@
     </row>
     <row r="411" spans="1:41">
       <c r="A411" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B411">
         <v>0</v>
       </c>
       <c r="C411">
-        <v>3110</v>
+        <v>2853.480058074474</v>
       </c>
       <c r="D411">
         <v>0</v>
@@ -52211,13 +52208,13 @@
     </row>
     <row r="412" spans="1:41">
       <c r="A412" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B412">
         <v>0</v>
       </c>
-      <c r="C412" t="s">
-        <v>73</v>
+      <c r="C412">
+        <v>0</v>
       </c>
       <c r="D412">
         <v>0</v>
@@ -52333,13 +52330,13 @@
     </row>
     <row r="413" spans="1:41">
       <c r="A413" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B413">
         <v>0</v>
       </c>
       <c r="C413">
-        <v>5200</v>
+        <v>4919.527828447746</v>
       </c>
       <c r="D413">
         <v>0</v>
@@ -52455,13 +52452,13 @@
     </row>
     <row r="414" spans="1:41">
       <c r="A414" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B414">
         <v>0</v>
       </c>
       <c r="C414">
-        <v>7600</v>
+        <v>6649.649328343422</v>
       </c>
       <c r="D414">
         <v>0</v>
@@ -52577,13 +52574,13 @@
     </row>
     <row r="415" spans="1:41">
       <c r="A415" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B415">
         <v>0</v>
       </c>
       <c r="C415">
-        <v>13290</v>
+        <v>13662.86107304027</v>
       </c>
       <c r="D415">
         <v>0</v>
@@ -52699,13 +52696,13 @@
     </row>
     <row r="416" spans="1:41">
       <c r="A416" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B416">
         <v>0</v>
       </c>
       <c r="C416">
-        <v>22180</v>
+        <v>22565.6804783288</v>
       </c>
       <c r="D416">
         <v>0</v>
@@ -52821,13 +52818,13 @@
     </row>
     <row r="417" spans="1:41">
       <c r="A417" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B417">
         <v>0</v>
       </c>
       <c r="C417">
-        <v>34760</v>
+        <v>33666.69191061637</v>
       </c>
       <c r="D417">
         <v>0</v>
@@ -52943,13 +52940,13 @@
     </row>
     <row r="418" spans="1:41">
       <c r="A418" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B418">
         <v>0</v>
       </c>
       <c r="C418">
-        <v>4520</v>
+        <v>3748.320622951519</v>
       </c>
       <c r="D418">
         <v>0</v>
@@ -53065,13 +53062,13 @@
     </row>
     <row r="419" spans="1:41">
       <c r="A419" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B419">
         <v>0</v>
       </c>
       <c r="C419">
-        <v>12600</v>
+        <v>10568.15780870825</v>
       </c>
       <c r="D419">
         <v>0</v>
@@ -53187,13 +53184,13 @@
     </row>
     <row r="420" spans="1:41">
       <c r="A420" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B420">
         <v>0</v>
       </c>
       <c r="C420">
-        <v>2960</v>
+        <v>2361.056581219794</v>
       </c>
       <c r="D420">
         <v>0</v>
@@ -53309,13 +53306,13 @@
     </row>
     <row r="421" spans="1:41">
       <c r="A421" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B421">
         <v>0</v>
       </c>
       <c r="C421">
-        <v>5210</v>
+        <v>5356.300151549611</v>
       </c>
       <c r="D421">
         <v>0</v>
@@ -53431,13 +53428,13 @@
     </row>
     <row r="422" spans="1:41">
       <c r="A422" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B422">
         <v>0</v>
       </c>
       <c r="C422">
-        <v>10160</v>
+        <v>11431.15448084494</v>
       </c>
       <c r="D422">
         <v>0</v>
@@ -53553,13 +53550,13 @@
     </row>
     <row r="423" spans="1:41">
       <c r="A423" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B423">
         <v>0</v>
       </c>
       <c r="C423">
-        <v>630</v>
+        <v>726.6520119370772</v>
       </c>
       <c r="D423">
         <v>0</v>
@@ -53675,13 +53672,13 @@
     </row>
     <row r="424" spans="1:41">
       <c r="A424" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B424">
         <v>0</v>
       </c>
       <c r="C424">
-        <v>260</v>
+        <v>228.4325441716057</v>
       </c>
       <c r="D424">
         <v>0</v>
@@ -53797,13 +53794,13 @@
     </row>
     <row r="425" spans="1:41">
       <c r="A425" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B425">
         <v>0</v>
       </c>
       <c r="C425">
-        <v>14140</v>
+        <v>14722.36632763098</v>
       </c>
       <c r="D425">
         <v>0</v>
@@ -53919,13 +53916,13 @@
     </row>
     <row r="426" spans="1:41">
       <c r="A426" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B426">
         <v>0</v>
       </c>
       <c r="C426">
-        <v>7910</v>
+        <v>6500.281937297324</v>
       </c>
       <c r="D426">
         <v>0</v>
@@ -54041,13 +54038,13 @@
     </row>
     <row r="427" spans="1:41">
       <c r="A427" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B427">
         <v>0</v>
       </c>
       <c r="C427">
-        <v>7330</v>
+        <v>7580.275568826287</v>
       </c>
       <c r="D427">
         <v>0</v>
@@ -54163,13 +54160,13 @@
     </row>
     <row r="428" spans="1:41">
       <c r="A428" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B428">
         <v>0</v>
       </c>
       <c r="C428">
-        <v>2410</v>
+        <v>3012.536723186288</v>
       </c>
       <c r="D428">
         <v>0</v>
@@ -54285,13 +54282,13 @@
     </row>
     <row r="429" spans="1:41">
       <c r="A429" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B429">
         <v>0</v>
       </c>
       <c r="C429">
-        <v>10400</v>
+        <v>9219.389700702559</v>
       </c>
       <c r="D429">
         <v>0</v>
@@ -54407,13 +54404,13 @@
     </row>
     <row r="430" spans="1:41">
       <c r="A430" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B430">
         <v>0</v>
       </c>
       <c r="C430">
-        <v>7230</v>
+        <v>6522.736799041846</v>
       </c>
       <c r="D430">
         <v>0</v>
@@ -54529,13 +54526,13 @@
     </row>
     <row r="431" spans="1:41">
       <c r="A431" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B431">
         <v>0</v>
       </c>
       <c r="C431">
-        <v>1870</v>
+        <v>0</v>
       </c>
       <c r="D431">
         <v>0</v>
@@ -54651,13 +54648,13 @@
     </row>
     <row r="432" spans="1:41">
       <c r="A432" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B432">
         <v>0</v>
       </c>
       <c r="C432">
-        <v>5970</v>
+        <v>5330.539154475424</v>
       </c>
       <c r="D432">
         <v>0</v>
@@ -54773,13 +54770,13 @@
     </row>
     <row r="433" spans="1:41">
       <c r="A433" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B433">
         <v>0</v>
       </c>
       <c r="C433">
-        <v>3440</v>
+        <v>3314.741082534716</v>
       </c>
       <c r="D433">
         <v>0</v>
@@ -54895,13 +54892,13 @@
     </row>
     <row r="434" spans="1:41">
       <c r="A434" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B434">
         <v>0</v>
       </c>
       <c r="C434">
-        <v>600</v>
+        <v>482.6390663355013</v>
       </c>
       <c r="D434">
         <v>0</v>
@@ -55017,13 +55014,13 @@
     </row>
     <row r="435" spans="1:41">
       <c r="A435" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B435">
         <v>0</v>
       </c>
       <c r="C435">
-        <v>3510</v>
+        <v>2735.187532014817</v>
       </c>
       <c r="D435">
         <v>0</v>
@@ -55139,13 +55136,13 @@
     </row>
     <row r="436" spans="1:41">
       <c r="A436" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B436">
         <v>0</v>
       </c>
       <c r="C436">
-        <v>640</v>
+        <v>754.9924336800377</v>
       </c>
       <c r="D436">
         <v>0</v>
@@ -55261,13 +55258,13 @@
     </row>
     <row r="437" spans="1:41">
       <c r="A437" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B437">
         <v>0</v>
       </c>
       <c r="C437">
-        <v>3620</v>
+        <v>3210.869677115934</v>
       </c>
       <c r="D437">
         <v>0</v>
@@ -55383,13 +55380,13 @@
     </row>
     <row r="438" spans="1:41">
       <c r="A438" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B438">
         <v>0</v>
       </c>
       <c r="C438">
-        <v>640</v>
+        <v>574.4917005765921</v>
       </c>
       <c r="D438">
         <v>0</v>
@@ -55505,13 +55502,13 @@
     </row>
     <row r="439" spans="1:41">
       <c r="A439" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B439">
         <v>0</v>
       </c>
       <c r="C439">
-        <v>810</v>
+        <v>729.1196658666737</v>
       </c>
       <c r="D439">
         <v>2500000</v>
@@ -55613,7 +55610,7 @@
         <v>1</v>
       </c>
       <c r="AL439">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM439">
         <v>1</v>
@@ -55627,13 +55624,13 @@
     </row>
     <row r="440" spans="1:41">
       <c r="A440" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B440">
         <v>0</v>
       </c>
       <c r="C440">
-        <v>2040</v>
+        <v>2067.29003376698</v>
       </c>
       <c r="D440">
         <v>190000</v>
@@ -55749,13 +55746,13 @@
     </row>
     <row r="441" spans="1:41">
       <c r="A441" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B441">
         <v>0</v>
       </c>
       <c r="C441">
-        <v>13140</v>
+        <v>14745.48995697241</v>
       </c>
       <c r="D441">
         <v>0</v>
@@ -55871,13 +55868,13 @@
     </row>
     <row r="442" spans="1:41">
       <c r="A442" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B442">
         <v>0</v>
       </c>
       <c r="C442">
-        <v>3430</v>
+        <v>3824.274885236236</v>
       </c>
       <c r="D442">
         <v>0</v>
@@ -55993,13 +55990,13 @@
     </row>
     <row r="443" spans="1:41">
       <c r="A443" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B443">
         <v>0</v>
       </c>
       <c r="C443">
-        <v>5940</v>
+        <v>5298.103912121626</v>
       </c>
       <c r="D443">
         <v>0</v>
@@ -56115,13 +56112,13 @@
     </row>
     <row r="444" spans="1:41">
       <c r="A444" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B444">
         <v>0</v>
       </c>
       <c r="C444">
-        <v>1180</v>
+        <v>1021.160791404878</v>
       </c>
       <c r="D444">
         <v>0</v>
@@ -56237,13 +56234,13 @@
     </row>
     <row r="445" spans="1:41">
       <c r="A445" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B445">
         <v>0</v>
       </c>
       <c r="C445">
-        <v>7290</v>
+        <v>6487.899081675427</v>
       </c>
       <c r="D445">
         <v>0</v>
@@ -56359,13 +56356,13 @@
     </row>
     <row r="446" spans="1:41">
       <c r="A446" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B446">
         <v>0</v>
       </c>
       <c r="C446">
-        <v>630</v>
+        <v>571.453129531788</v>
       </c>
       <c r="D446">
         <v>0</v>
@@ -56481,13 +56478,13 @@
     </row>
     <row r="447" spans="1:41">
       <c r="A447" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B447">
         <v>0</v>
       </c>
       <c r="C447">
-        <v>790</v>
+        <v>729.7808175407341</v>
       </c>
       <c r="D447">
         <v>2500000</v>
@@ -56603,13 +56600,13 @@
     </row>
     <row r="448" spans="1:41">
       <c r="A448" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B448">
         <v>0</v>
       </c>
       <c r="C448">
-        <v>1270</v>
+        <v>1732.587316450496</v>
       </c>
       <c r="D448">
         <v>0</v>
@@ -56725,13 +56722,13 @@
     </row>
     <row r="449" spans="1:41">
       <c r="A449" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B449">
         <v>0</v>
       </c>
       <c r="C449">
-        <v>10170</v>
+        <v>10037.20149040966</v>
       </c>
       <c r="D449">
         <v>0</v>
@@ -56847,13 +56844,13 @@
     </row>
     <row r="450" spans="1:41">
       <c r="A450" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B450">
         <v>0</v>
       </c>
       <c r="C450">
-        <v>600</v>
+        <v>579.0880693780265</v>
       </c>
       <c r="D450">
         <v>0</v>
@@ -56969,13 +56966,13 @@
     </row>
     <row r="451" spans="1:41">
       <c r="A451" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B451">
         <v>0</v>
       </c>
       <c r="C451">
-        <v>5550</v>
+        <v>6274.753381607363</v>
       </c>
       <c r="D451">
         <v>0</v>
@@ -57091,13 +57088,13 @@
     </row>
     <row r="452" spans="1:41">
       <c r="A452" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B452">
         <v>0</v>
       </c>
       <c r="C452">
-        <v>780</v>
+        <v>731.9993357350996</v>
       </c>
       <c r="D452">
         <v>0</v>
@@ -57213,13 +57210,13 @@
     </row>
     <row r="453" spans="1:41">
       <c r="A453" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B453">
         <v>0</v>
       </c>
       <c r="C453">
-        <v>1910</v>
+        <v>1836.014008604312</v>
       </c>
       <c r="D453">
         <v>0</v>
@@ -57335,13 +57332,13 @@
     </row>
     <row r="454" spans="1:41">
       <c r="A454" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B454">
         <v>0</v>
       </c>
       <c r="C454">
-        <v>390</v>
+        <v>517.8609592583078</v>
       </c>
       <c r="D454">
         <v>0</v>
@@ -57457,13 +57454,13 @@
     </row>
     <row r="455" spans="1:41">
       <c r="A455" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B455">
         <v>0</v>
       </c>
       <c r="C455">
-        <v>1360</v>
+        <v>1081.294365994858</v>
       </c>
       <c r="D455">
         <v>0</v>
@@ -57579,13 +57576,13 @@
     </row>
     <row r="456" spans="1:41">
       <c r="A456" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B456">
         <v>0</v>
       </c>
       <c r="C456">
-        <v>5620</v>
+        <v>4944.191641077407</v>
       </c>
       <c r="D456">
         <v>0</v>
@@ -57701,13 +57698,13 @@
     </row>
     <row r="457" spans="1:41">
       <c r="A457" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B457">
         <v>0</v>
       </c>
       <c r="C457">
-        <v>6340</v>
+        <v>6114.227214287786</v>
       </c>
       <c r="D457">
         <v>0</v>
@@ -57823,7 +57820,7 @@
     </row>
     <row r="458" spans="1:41">
       <c r="A458" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B458">
         <v>0</v>
@@ -57945,13 +57942,13 @@
     </row>
     <row r="459" spans="1:41">
       <c r="A459" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B459">
         <v>0</v>
       </c>
       <c r="C459">
-        <v>6480</v>
+        <v>6661.86504232374</v>
       </c>
       <c r="D459">
         <v>240000</v>
@@ -58053,7 +58050,7 @@
         <v>1</v>
       </c>
       <c r="AL459">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM459">
         <v>1</v>
@@ -58067,13 +58064,13 @@
     </row>
     <row r="460" spans="1:41">
       <c r="A460" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B460">
         <v>0</v>
       </c>
       <c r="C460">
-        <v>730</v>
+        <v>767.6026452352251</v>
       </c>
       <c r="D460">
         <v>0</v>
@@ -58189,13 +58186,13 @@
     </row>
     <row r="461" spans="1:41">
       <c r="A461" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B461">
         <v>0</v>
       </c>
       <c r="C461">
-        <v>1320</v>
+        <v>1384.519227335143</v>
       </c>
       <c r="D461">
         <v>0</v>
@@ -58311,13 +58308,13 @@
     </row>
     <row r="462" spans="1:41">
       <c r="A462" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B462">
         <v>0</v>
       </c>
       <c r="C462">
-        <v>6067.5</v>
+        <v>6249.151036691844</v>
       </c>
       <c r="D462">
         <v>0</v>
@@ -58433,13 +58430,13 @@
     </row>
     <row r="463" spans="1:41">
       <c r="A463" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B463">
         <v>0</v>
       </c>
       <c r="C463">
-        <v>550</v>
+        <v>441.1376640642927</v>
       </c>
       <c r="D463">
         <v>0</v>
@@ -58555,13 +58552,13 @@
     </row>
     <row r="464" spans="1:41">
       <c r="A464" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B464">
         <v>0</v>
       </c>
-      <c r="C464" t="s">
-        <v>73</v>
+      <c r="C464">
+        <v>0</v>
       </c>
       <c r="D464">
         <v>0</v>
@@ -58677,13 +58674,13 @@
     </row>
     <row r="465" spans="1:41">
       <c r="A465" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B465">
         <v>0</v>
       </c>
       <c r="C465">
-        <v>1980</v>
+        <v>1825.72155898504</v>
       </c>
       <c r="D465">
         <v>0</v>
@@ -58799,13 +58796,13 @@
     </row>
     <row r="466" spans="1:41">
       <c r="A466" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B466">
         <v>0</v>
       </c>
       <c r="C466">
-        <v>980</v>
+        <v>871.998368594318</v>
       </c>
       <c r="D466">
         <v>0</v>
@@ -58921,13 +58918,13 @@
     </row>
     <row r="467" spans="1:41">
       <c r="A467" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B467">
         <v>0</v>
       </c>
       <c r="C467">
-        <v>1250</v>
+        <v>935.9998251325713</v>
       </c>
       <c r="D467">
         <v>0</v>
@@ -59043,7 +59040,7 @@
     </row>
     <row r="468" spans="1:41">
       <c r="A468" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B468">
         <v>0</v>
@@ -59165,13 +59162,13 @@
     </row>
     <row r="469" spans="1:41">
       <c r="A469" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B469">
         <v>0</v>
       </c>
       <c r="C469">
-        <v>19070</v>
+        <v>16840.12080118481</v>
       </c>
       <c r="D469">
         <v>0</v>
@@ -59273,7 +59270,7 @@
         <v>1</v>
       </c>
       <c r="AL469">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM469">
         <v>1</v>
@@ -59287,13 +59284,13 @@
     </row>
     <row r="470" spans="1:41">
       <c r="A470" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B470">
         <v>0</v>
       </c>
       <c r="C470">
-        <v>3970</v>
+        <v>4308.415595998206</v>
       </c>
       <c r="D470">
         <v>0</v>
@@ -59409,13 +59406,13 @@
     </row>
     <row r="471" spans="1:41">
       <c r="A471" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B471">
         <v>0</v>
       </c>
       <c r="C471">
-        <v>2650</v>
+        <v>2828.88506924235</v>
       </c>
       <c r="D471">
         <v>0</v>
@@ -59531,13 +59528,13 @@
     </row>
     <row r="472" spans="1:41">
       <c r="A472" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B472">
         <v>0</v>
       </c>
       <c r="C472">
-        <v>1970</v>
+        <v>1667.171891046301</v>
       </c>
       <c r="D472">
         <v>0</v>
@@ -59653,13 +59650,13 @@
     </row>
     <row r="473" spans="1:41">
       <c r="A473" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B473">
         <v>0</v>
       </c>
       <c r="C473">
-        <v>2790</v>
+        <v>2781.785595612399</v>
       </c>
       <c r="D473">
         <v>0</v>
@@ -59775,13 +59772,13 @@
     </row>
     <row r="474" spans="1:41">
       <c r="A474" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B474">
         <v>0</v>
       </c>
-      <c r="C474" t="s">
-        <v>73</v>
+      <c r="C474">
+        <v>0</v>
       </c>
       <c r="D474">
         <v>0</v>
@@ -59897,13 +59894,13 @@
     </row>
     <row r="475" spans="1:41">
       <c r="A475" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B475">
         <v>0</v>
       </c>
       <c r="C475">
-        <v>5110</v>
+        <v>5105.402235055953</v>
       </c>
       <c r="D475">
         <v>0</v>
@@ -60019,13 +60016,13 @@
     </row>
     <row r="476" spans="1:41">
       <c r="A476" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B476">
         <v>0</v>
       </c>
       <c r="C476">
-        <v>6720</v>
+        <v>6384.817144925407</v>
       </c>
       <c r="D476">
         <v>0</v>
@@ -60141,13 +60138,13 @@
     </row>
     <row r="477" spans="1:41">
       <c r="A477" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B477">
         <v>0</v>
       </c>
       <c r="C477">
-        <v>12970</v>
+        <v>14111.6645850878</v>
       </c>
       <c r="D477">
         <v>0</v>
@@ -60263,13 +60260,13 @@
     </row>
     <row r="478" spans="1:41">
       <c r="A478" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B478">
         <v>0</v>
       </c>
       <c r="C478">
-        <v>20320</v>
+        <v>22615.3945784347</v>
       </c>
       <c r="D478">
         <v>0</v>
@@ -60385,13 +60382,13 @@
     </row>
     <row r="479" spans="1:41">
       <c r="A479" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B479">
         <v>0</v>
       </c>
       <c r="C479">
-        <v>32960</v>
+        <v>33961.43619022278</v>
       </c>
       <c r="D479">
         <v>0</v>
@@ -60507,13 +60504,13 @@
     </row>
     <row r="480" spans="1:41">
       <c r="A480" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B480">
         <v>1</v>
       </c>
       <c r="C480">
-        <v>3770</v>
+        <v>3530.309422482455</v>
       </c>
       <c r="D480">
         <v>0</v>
@@ -60629,13 +60626,13 @@
     </row>
     <row r="481" spans="1:41">
       <c r="A481" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B481">
         <v>0</v>
       </c>
       <c r="C481">
-        <v>4380</v>
+        <v>4830.197266280577</v>
       </c>
       <c r="D481">
         <v>0</v>
@@ -60751,13 +60748,13 @@
     </row>
     <row r="482" spans="1:41">
       <c r="A482" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B482">
         <v>0</v>
       </c>
       <c r="C482">
-        <v>12220</v>
+        <v>10239.48134799327</v>
       </c>
       <c r="D482">
         <v>0</v>
@@ -60873,13 +60870,13 @@
     </row>
     <row r="483" spans="1:41">
       <c r="A483" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B483">
         <v>0</v>
       </c>
       <c r="C483">
-        <v>5140</v>
+        <v>5595.099814079491</v>
       </c>
       <c r="D483">
         <v>0</v>
@@ -60995,13 +60992,13 @@
     </row>
     <row r="484" spans="1:41">
       <c r="A484" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B484">
         <v>1</v>
       </c>
       <c r="C484">
-        <v>600</v>
+        <v>747.8284752776283</v>
       </c>
       <c r="D484">
         <v>0</v>
@@ -61117,13 +61114,13 @@
     </row>
     <row r="485" spans="1:41">
       <c r="A485" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B485">
         <v>1</v>
       </c>
       <c r="C485">
-        <v>270</v>
+        <v>219.9614977577509</v>
       </c>
       <c r="D485">
         <v>0</v>
@@ -61239,13 +61236,13 @@
     </row>
     <row r="486" spans="1:41">
       <c r="A486" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B486">
         <v>0</v>
       </c>
       <c r="C486">
-        <v>3130</v>
+        <v>3532.14021075649</v>
       </c>
       <c r="D486">
         <v>0</v>
@@ -61361,13 +61358,13 @@
     </row>
     <row r="487" spans="1:41">
       <c r="A487" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B487">
         <v>0</v>
       </c>
       <c r="C487">
-        <v>6460</v>
+        <v>7633.969039669125</v>
       </c>
       <c r="D487">
         <v>0</v>
@@ -61483,13 +61480,13 @@
     </row>
     <row r="488" spans="1:41">
       <c r="A488" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B488">
         <v>0</v>
       </c>
       <c r="C488">
-        <v>1820</v>
+        <v>2854.757682901436</v>
       </c>
       <c r="D488">
         <v>0</v>
@@ -61605,13 +61602,13 @@
     </row>
     <row r="489" spans="1:41">
       <c r="A489" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B489">
         <v>0</v>
       </c>
       <c r="C489">
-        <v>10770</v>
+        <v>9509.738189381051</v>
       </c>
       <c r="D489">
         <v>0</v>
@@ -61727,13 +61724,13 @@
     </row>
     <row r="490" spans="1:41">
       <c r="A490" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B490">
         <v>0</v>
       </c>
       <c r="C490">
-        <v>5810</v>
+        <v>5176.058803160127</v>
       </c>
       <c r="D490">
         <v>282900</v>
@@ -61849,13 +61846,13 @@
     </row>
     <row r="491" spans="1:41">
       <c r="A491" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B491">
         <v>0</v>
       </c>
       <c r="C491">
-        <v>3510</v>
+        <v>3382.563653843273</v>
       </c>
       <c r="D491">
         <v>0</v>
@@ -61971,13 +61968,13 @@
     </row>
     <row r="492" spans="1:41">
       <c r="A492" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B492">
         <v>0</v>
       </c>
       <c r="C492">
-        <v>3570</v>
+        <v>2886.897484630703</v>
       </c>
       <c r="D492">
         <v>0</v>
@@ -62093,13 +62090,13 @@
     </row>
     <row r="493" spans="1:41">
       <c r="A493" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B493">
         <v>1</v>
       </c>
       <c r="C493">
-        <v>620</v>
+        <v>747.0027350903288</v>
       </c>
       <c r="D493">
         <v>0</v>
@@ -62215,13 +62212,13 @@
     </row>
     <row r="494" spans="1:41">
       <c r="A494" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B494">
         <v>0</v>
       </c>
       <c r="C494">
-        <v>3800</v>
+        <v>3242.636921959078</v>
       </c>
       <c r="D494">
         <v>0</v>
@@ -62337,13 +62334,13 @@
     </row>
     <row r="495" spans="1:41">
       <c r="A495" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B495">
         <v>1</v>
       </c>
       <c r="C495">
-        <v>650</v>
+        <v>594.9783586927158</v>
       </c>
       <c r="D495">
         <v>0</v>
@@ -62459,13 +62456,13 @@
     </row>
     <row r="496" spans="1:41">
       <c r="A496" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B496">
         <v>1</v>
       </c>
       <c r="C496">
-        <v>780</v>
+        <v>729.8559996981501</v>
       </c>
       <c r="D496">
         <v>0</v>
@@ -62567,7 +62564,7 @@
         <v>1</v>
       </c>
       <c r="AL496">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM496">
         <v>1</v>
@@ -62581,13 +62578,13 @@
     </row>
     <row r="497" spans="1:41">
       <c r="A497" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B497">
         <v>0</v>
       </c>
       <c r="C497">
-        <v>2110</v>
+        <v>2111.193164269742</v>
       </c>
       <c r="D497">
         <v>190000</v>
@@ -62703,13 +62700,13 @@
     </row>
     <row r="498" spans="1:41">
       <c r="A498" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B498">
         <v>0</v>
       </c>
       <c r="C498">
-        <v>1110</v>
+        <v>1043.951111433831</v>
       </c>
       <c r="D498">
         <v>0</v>
@@ -62825,13 +62822,13 @@
     </row>
     <row r="499" spans="1:41">
       <c r="A499" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B499">
         <v>0</v>
       </c>
       <c r="C499">
-        <v>7250</v>
+        <v>6411.986543373589</v>
       </c>
       <c r="D499">
         <v>0</v>
@@ -62947,13 +62944,13 @@
     </row>
     <row r="500" spans="1:41">
       <c r="A500" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B500">
         <v>1</v>
       </c>
       <c r="C500">
-        <v>620</v>
+        <v>548.2681436079887</v>
       </c>
       <c r="D500">
         <v>0</v>
@@ -63069,13 +63066,13 @@
     </row>
     <row r="501" spans="1:41">
       <c r="A501" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B501">
         <v>1</v>
       </c>
       <c r="C501">
-        <v>780</v>
+        <v>749.2194349876407</v>
       </c>
       <c r="D501">
         <v>0</v>
@@ -63191,13 +63188,13 @@
     </row>
     <row r="502" spans="1:41">
       <c r="A502" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B502">
         <v>1</v>
       </c>
       <c r="C502">
-        <v>1160</v>
+        <v>1705.033923663474</v>
       </c>
       <c r="D502">
         <v>0</v>
@@ -63313,13 +63310,13 @@
     </row>
     <row r="503" spans="1:41">
       <c r="A503" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B503">
         <v>1</v>
       </c>
       <c r="C503">
-        <v>490</v>
+        <v>584.2111078769213</v>
       </c>
       <c r="D503">
         <v>0</v>
@@ -63435,13 +63432,13 @@
     </row>
     <row r="504" spans="1:41">
       <c r="A504" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B504">
         <v>0</v>
       </c>
       <c r="C504">
-        <v>4980</v>
+        <v>6142.67419389426</v>
       </c>
       <c r="D504">
         <v>0</v>
@@ -63557,13 +63554,13 @@
     </row>
     <row r="505" spans="1:41">
       <c r="A505" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B505">
         <v>1</v>
       </c>
       <c r="C505">
-        <v>770</v>
+        <v>729.6614300490079</v>
       </c>
       <c r="D505">
         <v>0</v>
@@ -63679,13 +63676,13 @@
     </row>
     <row r="506" spans="1:41">
       <c r="A506" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B506">
         <v>0</v>
       </c>
       <c r="C506">
-        <v>2000</v>
+        <v>1895.214690888655</v>
       </c>
       <c r="D506">
         <v>0</v>
@@ -63801,13 +63798,13 @@
     </row>
     <row r="507" spans="1:41">
       <c r="A507" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B507">
         <v>1</v>
       </c>
       <c r="C507">
-        <v>370</v>
+        <v>526.5953412037009</v>
       </c>
       <c r="D507">
         <v>0</v>
@@ -63923,13 +63920,13 @@
     </row>
     <row r="508" spans="1:41">
       <c r="A508" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B508">
         <v>0</v>
       </c>
       <c r="C508">
-        <v>1420</v>
+        <v>1117.517554619445</v>
       </c>
       <c r="D508">
         <v>0</v>
@@ -64045,13 +64042,13 @@
     </row>
     <row r="509" spans="1:41">
       <c r="A509" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B509">
         <v>0</v>
       </c>
       <c r="C509">
-        <v>6120</v>
+        <v>6262.368904654469</v>
       </c>
       <c r="D509">
         <v>0</v>
@@ -64167,7 +64164,7 @@
     </row>
     <row r="510" spans="1:41">
       <c r="A510" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B510">
         <v>0</v>
@@ -64289,13 +64286,13 @@
     </row>
     <row r="511" spans="1:41">
       <c r="A511" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B511">
         <v>0</v>
       </c>
       <c r="C511">
-        <v>6640</v>
+        <v>7026.178156858586</v>
       </c>
       <c r="D511">
         <v>0</v>
@@ -64397,7 +64394,7 @@
         <v>1</v>
       </c>
       <c r="AL511">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM511">
         <v>1</v>
@@ -64411,13 +64408,13 @@
     </row>
     <row r="512" spans="1:41">
       <c r="A512" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B512">
         <v>1</v>
       </c>
       <c r="C512">
-        <v>720</v>
+        <v>792.6212731169028</v>
       </c>
       <c r="D512">
         <v>0</v>
@@ -64533,13 +64530,13 @@
     </row>
     <row r="513" spans="1:41">
       <c r="A513" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B513">
         <v>1</v>
       </c>
       <c r="C513">
-        <v>1270</v>
+        <v>1431.756130822538</v>
       </c>
       <c r="D513">
         <v>0</v>
@@ -64655,13 +64652,13 @@
     </row>
     <row r="514" spans="1:41">
       <c r="A514" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B514">
         <v>1</v>
       </c>
       <c r="C514">
-        <v>490</v>
+        <v>457.8330917196623</v>
       </c>
       <c r="D514">
         <v>0</v>
@@ -64777,13 +64774,13 @@
     </row>
     <row r="515" spans="1:41">
       <c r="A515" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B515">
         <v>0</v>
       </c>
-      <c r="C515" t="s">
-        <v>73</v>
+      <c r="C515">
+        <v>0</v>
       </c>
       <c r="D515">
         <v>0</v>
@@ -64899,13 +64896,13 @@
     </row>
     <row r="516" spans="1:41">
       <c r="A516" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B516">
         <v>1</v>
       </c>
       <c r="C516">
-        <v>2130</v>
+        <v>1866.22170375365</v>
       </c>
       <c r="D516">
         <v>0</v>
@@ -65021,13 +65018,13 @@
     </row>
     <row r="517" spans="1:41">
       <c r="A517" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B517">
         <v>0</v>
       </c>
       <c r="C517">
-        <v>970</v>
+        <v>904.381892324943</v>
       </c>
       <c r="D517">
         <v>0</v>
@@ -65143,13 +65140,13 @@
     </row>
     <row r="518" spans="1:41">
       <c r="A518" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B518">
         <v>0</v>
       </c>
       <c r="C518">
-        <v>1110</v>
+        <v>976.1351752797748</v>
       </c>
       <c r="D518">
         <v>0</v>
@@ -65265,7 +65262,7 @@
     </row>
     <row r="519" spans="1:41">
       <c r="A519" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B519">
         <v>0</v>
@@ -65387,13 +65384,13 @@
     </row>
     <row r="520" spans="1:41">
       <c r="A520" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B520">
         <v>0</v>
       </c>
       <c r="C520">
-        <v>3760</v>
+        <v>4310.567450080138</v>
       </c>
       <c r="D520">
         <v>0</v>
@@ -65509,13 +65506,13 @@
     </row>
     <row r="521" spans="1:41">
       <c r="A521" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B521">
         <v>0</v>
       </c>
-      <c r="C521" t="s">
-        <v>73</v>
+      <c r="C521">
+        <v>0</v>
       </c>
       <c r="D521">
         <v>0</v>
@@ -65631,13 +65628,13 @@
     </row>
     <row r="522" spans="1:41">
       <c r="A522" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B522">
         <v>0</v>
       </c>
       <c r="C522">
-        <v>5620</v>
+        <v>6215.701865500891</v>
       </c>
       <c r="D522">
         <v>0</v>
@@ -65753,13 +65750,13 @@
     </row>
     <row r="523" spans="1:41">
       <c r="A523" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B523">
         <v>0</v>
       </c>
       <c r="C523">
-        <v>18890</v>
+        <v>22666.28622740736</v>
       </c>
       <c r="D523">
         <v>0</v>
@@ -65875,13 +65872,13 @@
     </row>
     <row r="524" spans="1:41">
       <c r="A524" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B524">
         <v>0</v>
       </c>
       <c r="C524">
-        <v>31810</v>
+        <v>34459.20571522378</v>
       </c>
       <c r="D524">
         <v>0</v>
@@ -65997,13 +65994,13 @@
     </row>
     <row r="525" spans="1:41">
       <c r="A525" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B525">
         <v>0</v>
       </c>
       <c r="C525">
-        <v>7080</v>
+        <v>9429.046318403836</v>
       </c>
       <c r="D525">
         <v>0</v>
@@ -66119,13 +66116,13 @@
     </row>
     <row r="526" spans="1:41">
       <c r="A526" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B526">
         <v>1</v>
       </c>
       <c r="C526">
-        <v>1700</v>
+        <v>1263.374587574827</v>
       </c>
       <c r="D526">
         <v>0</v>

--- a/output/cruz roja.xlsx
+++ b/output/cruz roja.xlsx
@@ -2438,7 +2438,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>914.4454289880559</v>
       </c>
       <c r="D4">
         <v>407250</v>
@@ -5976,7 +5976,7 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>519.25</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -6827,10 +6827,10 @@
         <v>79</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>1068.16851075414</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -7443,7 +7443,7 @@
         <v>749.9184730334429</v>
       </c>
       <c r="D45">
-        <v>124000</v>
+        <v>0</v>
       </c>
       <c r="E45">
         <v>142414</v>
@@ -8660,7 +8660,7 @@
         <v>0</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>10886</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>2696.92</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -9148,7 +9148,7 @@
         <v>0</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>2235.045836135583</v>
       </c>
       <c r="D59">
         <v>325567</v>
@@ -10002,7 +10002,7 @@
         <v>1</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>334.0215725731523</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -11222,7 +11222,7 @@
         <v>0</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>937.175305459579</v>
       </c>
       <c r="D76">
         <v>150000</v>
@@ -12201,7 +12201,7 @@
         <v>672.4244025624427</v>
       </c>
       <c r="D84">
-        <v>430000</v>
+        <v>0</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -12689,7 +12689,7 @@
         <v>1610.923908476106</v>
       </c>
       <c r="D88">
-        <v>349500</v>
+        <v>0</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -15495,7 +15495,7 @@
         <v>1904.346464968814</v>
       </c>
       <c r="D111">
-        <v>396724</v>
+        <v>0</v>
       </c>
       <c r="E111">
         <v>844739</v>
@@ -17325,7 +17325,7 @@
         <v>5082.354756663512</v>
       </c>
       <c r="D126">
-        <v>169522</v>
+        <v>0</v>
       </c>
       <c r="E126">
         <v>3552981</v>
@@ -18054,7 +18054,7 @@
         <v>0</v>
       </c>
       <c r="C132">
-        <v>0</v>
+        <v>629.84</v>
       </c>
       <c r="D132">
         <v>0</v>
@@ -19521,7 +19521,7 @@
         <v>4094.350334420203</v>
       </c>
       <c r="D144">
-        <v>170000</v>
+        <v>0</v>
       </c>
       <c r="E144">
         <v>114800</v>
@@ -20372,7 +20372,7 @@
         <v>0</v>
       </c>
       <c r="C151">
-        <v>0</v>
+        <v>3114.95</v>
       </c>
       <c r="D151">
         <v>0</v>
@@ -20494,7 +20494,7 @@
         <v>0</v>
       </c>
       <c r="C152">
-        <v>0</v>
+        <v>2354.125986718473</v>
       </c>
       <c r="D152">
         <v>1200000</v>
@@ -20619,7 +20619,7 @@
         <v>3579.960081455846</v>
       </c>
       <c r="D153">
-        <v>2400000</v>
+        <v>0</v>
       </c>
       <c r="E153">
         <v>842378</v>
@@ -21107,7 +21107,7 @@
         <v>492.3430015592067</v>
       </c>
       <c r="D157">
-        <v>2000000</v>
+        <v>0</v>
       </c>
       <c r="E157">
         <v>90738</v>
@@ -21229,7 +21229,7 @@
         <v>5490.741705350987</v>
       </c>
       <c r="D158">
-        <v>345000</v>
+        <v>0</v>
       </c>
       <c r="E158">
         <v>148179</v>
@@ -21348,7 +21348,7 @@
         <v>1</v>
       </c>
       <c r="C159">
-        <v>0</v>
+        <v>345.2661148508273</v>
       </c>
       <c r="D159">
         <v>0</v>
@@ -22812,7 +22812,7 @@
         <v>0</v>
       </c>
       <c r="C171">
-        <v>0</v>
+        <v>973.1190116235886</v>
       </c>
       <c r="D171">
         <v>586940</v>
@@ -23303,7 +23303,7 @@
         <v>767.1553536433389</v>
       </c>
       <c r="D175">
-        <v>1440000</v>
+        <v>0</v>
       </c>
       <c r="E175">
         <v>90638</v>
@@ -23547,7 +23547,7 @@
         <v>587.1403830380606</v>
       </c>
       <c r="D177">
-        <v>1440000</v>
+        <v>0</v>
       </c>
       <c r="E177">
         <v>439037</v>
@@ -23791,7 +23791,7 @@
         <v>711.1128122770988</v>
       </c>
       <c r="D179">
-        <v>1440000</v>
+        <v>0</v>
       </c>
       <c r="E179">
         <v>595663</v>
@@ -24157,7 +24157,7 @@
         <v>1263.452411343738</v>
       </c>
       <c r="D182">
-        <v>1440000</v>
+        <v>0</v>
       </c>
       <c r="E182">
         <v>208201</v>
@@ -24764,7 +24764,7 @@
         <v>1</v>
       </c>
       <c r="C187">
-        <v>0</v>
+        <v>1402.3</v>
       </c>
       <c r="D187">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>1</v>
       </c>
       <c r="C192">
-        <v>0</v>
+        <v>298.44</v>
       </c>
       <c r="D192">
         <v>0</v>
@@ -25865,7 +25865,7 @@
         <v>3083.80337578809</v>
       </c>
       <c r="D196">
-        <v>582725</v>
+        <v>0</v>
       </c>
       <c r="E196">
         <v>1345858</v>
@@ -26719,7 +26719,7 @@
         <v>5660.517066940175</v>
       </c>
       <c r="D203">
-        <v>2000000</v>
+        <v>0</v>
       </c>
       <c r="E203">
         <v>1115709</v>
@@ -27451,7 +27451,7 @@
         <v>6711.616186806423</v>
       </c>
       <c r="D209">
-        <v>2970000</v>
+        <v>0</v>
       </c>
       <c r="E209">
         <v>948312</v>
@@ -28546,7 +28546,7 @@
         <v>0</v>
       </c>
       <c r="C218">
-        <v>0</v>
+        <v>671.42</v>
       </c>
       <c r="D218">
         <v>0</v>
@@ -28671,7 +28671,7 @@
         <v>2264.394087033834</v>
       </c>
       <c r="D219">
-        <v>1840000</v>
+        <v>0</v>
       </c>
       <c r="E219">
         <v>688125</v>
@@ -29891,7 +29891,7 @@
         <v>1385.890384668919</v>
       </c>
       <c r="D229">
-        <v>1750000</v>
+        <v>0</v>
       </c>
       <c r="E229">
         <v>281229</v>
@@ -31108,10 +31108,10 @@
         <v>0</v>
       </c>
       <c r="C239">
-        <v>0</v>
+        <v>2580.369788543324</v>
       </c>
       <c r="D239">
-        <v>1200000</v>
+        <v>0</v>
       </c>
       <c r="E239">
         <v>771109</v>
@@ -32328,7 +32328,7 @@
         <v>1</v>
       </c>
       <c r="C249">
-        <v>0</v>
+        <v>1615.45</v>
       </c>
       <c r="D249">
         <v>0</v>
@@ -32453,7 +32453,7 @@
         <v>5122.180090208862</v>
       </c>
       <c r="D250">
-        <v>221660</v>
+        <v>0</v>
       </c>
       <c r="E250">
         <v>693284</v>
@@ -33673,7 +33673,7 @@
         <v>1982.009737844954</v>
       </c>
       <c r="D260">
-        <v>293591</v>
+        <v>0</v>
       </c>
       <c r="E260">
         <v>240243</v>
@@ -34771,7 +34771,7 @@
         <v>1657.651524528445</v>
       </c>
       <c r="D269">
-        <v>310000</v>
+        <v>0</v>
       </c>
       <c r="E269">
         <v>786716</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="C271">
-        <v>0</v>
+        <v>2675.677541978231</v>
       </c>
       <c r="D271">
         <v>0</v>
@@ -35622,7 +35622,7 @@
         <v>1</v>
       </c>
       <c r="C276">
-        <v>0</v>
+        <v>357.5982958925156</v>
       </c>
       <c r="D276">
         <v>0</v>
@@ -35866,7 +35866,7 @@
         <v>0</v>
       </c>
       <c r="C278">
-        <v>0</v>
+        <v>988.4992779375814</v>
       </c>
       <c r="D278">
         <v>380602</v>
@@ -36110,7 +36110,7 @@
         <v>0</v>
       </c>
       <c r="C280">
-        <v>0</v>
+        <v>4125.78</v>
       </c>
       <c r="D280">
         <v>0</v>
@@ -36235,7 +36235,7 @@
         <v>1745.10167474004</v>
       </c>
       <c r="D281">
-        <v>369896</v>
+        <v>0</v>
       </c>
       <c r="E281">
         <v>400360</v>
@@ -38312,7 +38312,7 @@
         <v>0</v>
       </c>
       <c r="E298">
-        <v>405587.44</v>
+        <v>327351</v>
       </c>
       <c r="F298">
         <v>0</v>
@@ -38434,7 +38434,7 @@
         <v>0</v>
       </c>
       <c r="E299">
-        <v>2097.29</v>
+        <v>89565</v>
       </c>
       <c r="F299">
         <v>0</v>
@@ -38556,7 +38556,7 @@
         <v>0</v>
       </c>
       <c r="E300">
-        <v>6022.23</v>
+        <v>219318</v>
       </c>
       <c r="F300">
         <v>0</v>
@@ -38678,7 +38678,7 @@
         <v>0</v>
       </c>
       <c r="E301">
-        <v>383169.52</v>
+        <v>131667</v>
       </c>
       <c r="F301">
         <v>0</v>
@@ -38800,7 +38800,7 @@
         <v>0</v>
       </c>
       <c r="E302">
-        <v>193813.765</v>
+        <v>152570</v>
       </c>
       <c r="F302">
         <v>0</v>
@@ -39044,7 +39044,7 @@
         <v>0</v>
       </c>
       <c r="E304">
-        <v>590701.3050000001</v>
+        <v>538447</v>
       </c>
       <c r="F304">
         <v>0</v>
@@ -39285,10 +39285,10 @@
         <v>6203.843262938323</v>
       </c>
       <c r="D306">
-        <v>227110.6666666667</v>
+        <v>0</v>
       </c>
       <c r="E306">
-        <v>37476.37</v>
+        <v>5472</v>
       </c>
       <c r="F306">
         <v>0</v>
@@ -39404,7 +39404,7 @@
         <v>1</v>
       </c>
       <c r="C307">
-        <v>0</v>
+        <v>1634.83</v>
       </c>
       <c r="D307">
         <v>0</v>
@@ -39532,7 +39532,7 @@
         <v>0</v>
       </c>
       <c r="E308">
-        <v>1023983.09</v>
+        <v>693284</v>
       </c>
       <c r="F308">
         <v>0</v>
@@ -39651,10 +39651,10 @@
         <v>3212.740625904757</v>
       </c>
       <c r="D309">
-        <v>227110.6666666667</v>
+        <v>0</v>
       </c>
       <c r="E309">
-        <v>447671.75</v>
+        <v>1004038</v>
       </c>
       <c r="F309">
         <v>0</v>
@@ -39776,7 +39776,7 @@
         <v>0</v>
       </c>
       <c r="E310">
-        <v>20133.16</v>
+        <v>51691</v>
       </c>
       <c r="F310">
         <v>0</v>
@@ -39898,7 +39898,7 @@
         <v>0</v>
       </c>
       <c r="E311">
-        <v>988519.73</v>
+        <v>1723458</v>
       </c>
       <c r="F311">
         <v>0</v>
@@ -40142,7 +40142,7 @@
         <v>0</v>
       </c>
       <c r="E313">
-        <v>204058.91</v>
+        <v>190226</v>
       </c>
       <c r="F313">
         <v>0</v>
@@ -40261,10 +40261,10 @@
         <v>3056.152683606517</v>
       </c>
       <c r="D314">
-        <v>227110.6666666667</v>
+        <v>0</v>
       </c>
       <c r="E314">
-        <v>291145.11</v>
+        <v>33315</v>
       </c>
       <c r="F314">
         <v>0</v>
@@ -40386,7 +40386,7 @@
         <v>0</v>
       </c>
       <c r="E315">
-        <v>153004.95</v>
+        <v>216945</v>
       </c>
       <c r="F315">
         <v>0</v>
@@ -40630,7 +40630,7 @@
         <v>0</v>
       </c>
       <c r="E317">
-        <v>2160278.795</v>
+        <v>16229105</v>
       </c>
       <c r="F317">
         <v>0</v>
@@ -40752,7 +40752,7 @@
         <v>0</v>
       </c>
       <c r="E318">
-        <v>335060.16</v>
+        <v>240243</v>
       </c>
       <c r="F318">
         <v>0</v>
@@ -40874,7 +40874,7 @@
         <v>0</v>
       </c>
       <c r="E319">
-        <v>96878.42999999999</v>
+        <v>361994</v>
       </c>
       <c r="F319">
         <v>0</v>
@@ -40996,7 +40996,7 @@
         <v>0</v>
       </c>
       <c r="E320">
-        <v>266891.29</v>
+        <v>458103</v>
       </c>
       <c r="F320">
         <v>0</v>
@@ -41118,7 +41118,7 @@
         <v>0</v>
       </c>
       <c r="E321">
-        <v>0</v>
+        <v>36208</v>
       </c>
       <c r="F321">
         <v>0</v>
@@ -41240,7 +41240,7 @@
         <v>0</v>
       </c>
       <c r="E322">
-        <v>17947.595</v>
+        <v>20000</v>
       </c>
       <c r="F322">
         <v>0</v>
@@ -41362,7 +41362,7 @@
         <v>0</v>
       </c>
       <c r="E323">
-        <v>249307.95</v>
+        <v>142646</v>
       </c>
       <c r="F323">
         <v>0</v>
@@ -41484,7 +41484,7 @@
         <v>0</v>
       </c>
       <c r="E324">
-        <v>74047.61500000001</v>
+        <v>459497</v>
       </c>
       <c r="F324">
         <v>0</v>
@@ -41606,7 +41606,7 @@
         <v>0</v>
       </c>
       <c r="E325">
-        <v>410778.9</v>
+        <v>266989</v>
       </c>
       <c r="F325">
         <v>0</v>
@@ -41728,7 +41728,7 @@
         <v>0</v>
       </c>
       <c r="E326">
-        <v>249865.905</v>
+        <v>195786</v>
       </c>
       <c r="F326">
         <v>0</v>
@@ -41850,7 +41850,7 @@
         <v>0</v>
       </c>
       <c r="E327">
-        <v>428272.41</v>
+        <v>786716</v>
       </c>
       <c r="F327">
         <v>0</v>
@@ -41972,7 +41972,7 @@
         <v>220460</v>
       </c>
       <c r="E328">
-        <v>120243.495</v>
+        <v>1020471</v>
       </c>
       <c r="F328">
         <v>0</v>
@@ -42088,13 +42088,13 @@
         <v>0</v>
       </c>
       <c r="C329">
-        <v>0</v>
+        <v>2670.127177203784</v>
       </c>
       <c r="D329">
         <v>0</v>
       </c>
       <c r="E329">
-        <v>134374.965</v>
+        <v>1200599</v>
       </c>
       <c r="F329">
         <v>0</v>
@@ -42338,7 +42338,7 @@
         <v>0</v>
       </c>
       <c r="E331">
-        <v>0</v>
+        <v>899360</v>
       </c>
       <c r="F331">
         <v>0</v>
@@ -42460,7 +42460,7 @@
         <v>0</v>
       </c>
       <c r="E332">
-        <v>0</v>
+        <v>744373</v>
       </c>
       <c r="F332">
         <v>0</v>
@@ -42582,7 +42582,7 @@
         <v>0</v>
       </c>
       <c r="E333">
-        <v>24772.67</v>
+        <v>68604</v>
       </c>
       <c r="F333">
         <v>0</v>
@@ -42698,13 +42698,13 @@
         <v>1</v>
       </c>
       <c r="C334">
-        <v>0</v>
+        <v>375.2191755030593</v>
       </c>
       <c r="D334">
         <v>0</v>
       </c>
       <c r="E334">
-        <v>199788.285</v>
+        <v>0</v>
       </c>
       <c r="F334">
         <v>0</v>
@@ -42826,7 +42826,7 @@
         <v>0</v>
       </c>
       <c r="E335">
-        <v>274381.28</v>
+        <v>660180</v>
       </c>
       <c r="F335">
         <v>0</v>
@@ -42942,13 +42942,13 @@
         <v>0</v>
       </c>
       <c r="C336">
-        <v>0</v>
+        <v>1018.750753846855</v>
       </c>
       <c r="D336">
-        <v>380602</v>
+        <v>0</v>
       </c>
       <c r="E336">
-        <v>389418.46</v>
+        <v>970119</v>
       </c>
       <c r="F336">
         <v>0</v>
@@ -43070,7 +43070,7 @@
         <v>0</v>
       </c>
       <c r="E337">
-        <v>0</v>
+        <v>141098</v>
       </c>
       <c r="F337">
         <v>0</v>
@@ -43186,13 +43186,13 @@
         <v>0</v>
       </c>
       <c r="C338">
-        <v>0</v>
+        <v>1526.54</v>
       </c>
       <c r="D338">
         <v>0</v>
       </c>
       <c r="E338">
-        <v>33861.925</v>
+        <v>0</v>
       </c>
       <c r="F338">
         <v>0</v>
@@ -43314,7 +43314,7 @@
         <v>0</v>
       </c>
       <c r="E339">
-        <v>199143.885</v>
+        <v>400360</v>
       </c>
       <c r="F339">
         <v>0</v>
@@ -43436,7 +43436,7 @@
         <v>0</v>
       </c>
       <c r="E340">
-        <v>612609.355</v>
+        <v>2498128</v>
       </c>
       <c r="F340">
         <v>0</v>
@@ -43558,7 +43558,7 @@
         <v>0</v>
       </c>
       <c r="E341">
-        <v>7376.975</v>
+        <v>28940</v>
       </c>
       <c r="F341">
         <v>0</v>
@@ -43680,7 +43680,7 @@
         <v>0</v>
       </c>
       <c r="E342">
-        <v>21661.65</v>
+        <v>0</v>
       </c>
       <c r="F342">
         <v>0</v>
@@ -43802,7 +43802,7 @@
         <v>0</v>
       </c>
       <c r="E343">
-        <v>235528.23</v>
+        <v>350281</v>
       </c>
       <c r="F343">
         <v>0</v>
@@ -44168,7 +44168,7 @@
         <v>0</v>
       </c>
       <c r="E346">
-        <v>28129.405</v>
+        <v>0</v>
       </c>
       <c r="F346">
         <v>0</v>
@@ -44290,7 +44290,7 @@
         <v>0</v>
       </c>
       <c r="E347">
-        <v>300569.04</v>
+        <v>137368</v>
       </c>
       <c r="F347">
         <v>0</v>
@@ -44412,7 +44412,7 @@
         <v>0</v>
       </c>
       <c r="E348">
-        <v>3392.12</v>
+        <v>91462</v>
       </c>
       <c r="F348">
         <v>0</v>
@@ -44534,7 +44534,7 @@
         <v>0</v>
       </c>
       <c r="E349">
-        <v>10142.95</v>
+        <v>95</v>
       </c>
       <c r="F349">
         <v>0</v>
@@ -44656,7 +44656,7 @@
         <v>0</v>
       </c>
       <c r="E350">
-        <v>9233.9</v>
+        <v>206174</v>
       </c>
       <c r="F350">
         <v>0</v>
@@ -44778,7 +44778,7 @@
         <v>0</v>
       </c>
       <c r="E351">
-        <v>248.05</v>
+        <v>125763</v>
       </c>
       <c r="F351">
         <v>0</v>
@@ -44900,7 +44900,7 @@
         <v>0</v>
       </c>
       <c r="E352">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="F352">
         <v>0</v>
@@ -45022,7 +45022,7 @@
         <v>0</v>
       </c>
       <c r="E353">
-        <v>44472.555</v>
+        <v>0</v>
       </c>
       <c r="F353">
         <v>0</v>
@@ -45144,7 +45144,7 @@
         <v>0</v>
       </c>
       <c r="E354">
-        <v>175000</v>
+        <v>116164</v>
       </c>
       <c r="F354">
         <v>0</v>
@@ -46968,7 +46968,7 @@
         <v>1</v>
       </c>
       <c r="C369">
-        <v>0</v>
+        <v>1726.3</v>
       </c>
       <c r="D369">
         <v>0</v>
@@ -49777,7 +49777,7 @@
         <v>515.8271637832048</v>
       </c>
       <c r="D392">
-        <v>220460</v>
+        <v>0</v>
       </c>
       <c r="E392">
         <v>120243.495</v>
@@ -50262,7 +50262,7 @@
         <v>0</v>
       </c>
       <c r="C396">
-        <v>0</v>
+        <v>1031.276228639696</v>
       </c>
       <c r="D396">
         <v>0</v>
@@ -50994,7 +50994,7 @@
         <v>0</v>
       </c>
       <c r="C402">
-        <v>0</v>
+        <v>1366.25</v>
       </c>
       <c r="D402">
         <v>0</v>
@@ -51482,7 +51482,7 @@
         <v>0</v>
       </c>
       <c r="C406">
-        <v>0</v>
+        <v>2603.521013626997</v>
       </c>
       <c r="D406">
         <v>0</v>
@@ -52089,7 +52089,7 @@
         <v>450</v>
       </c>
       <c r="B411">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C411">
         <v>2853.480058074474</v>
@@ -52214,7 +52214,7 @@
         <v>0</v>
       </c>
       <c r="C412">
-        <v>0</v>
+        <v>768.41</v>
       </c>
       <c r="D412">
         <v>0</v>
@@ -52943,7 +52943,7 @@
         <v>457</v>
       </c>
       <c r="B418">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C418">
         <v>3748.320622951519</v>
@@ -52952,7 +52952,7 @@
         <v>0</v>
       </c>
       <c r="E418">
-        <v>464907.855</v>
+        <v>405587.44</v>
       </c>
       <c r="F418">
         <v>0</v>
@@ -53074,7 +53074,7 @@
         <v>0</v>
       </c>
       <c r="E419">
-        <v>36419.47</v>
+        <v>2097.29</v>
       </c>
       <c r="F419">
         <v>0</v>
@@ -53196,7 +53196,7 @@
         <v>0</v>
       </c>
       <c r="E420">
-        <v>65306.53</v>
+        <v>6022.23</v>
       </c>
       <c r="F420">
         <v>0</v>
@@ -53553,7 +53553,7 @@
         <v>462</v>
       </c>
       <c r="B423">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C423">
         <v>726.6520119370772</v>
@@ -53562,7 +53562,7 @@
         <v>0</v>
       </c>
       <c r="E423">
-        <v>343215.955</v>
+        <v>383169.52</v>
       </c>
       <c r="F423">
         <v>0</v>
@@ -53675,7 +53675,7 @@
         <v>463</v>
       </c>
       <c r="B424">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C424">
         <v>228.4325441716057</v>
@@ -53684,7 +53684,7 @@
         <v>0</v>
       </c>
       <c r="E424">
-        <v>127671.285</v>
+        <v>193813.765</v>
       </c>
       <c r="F424">
         <v>0</v>
@@ -53806,7 +53806,7 @@
         <v>0</v>
       </c>
       <c r="E425">
-        <v>0</v>
+        <v>3392.12</v>
       </c>
       <c r="F425">
         <v>0</v>
@@ -54050,7 +54050,7 @@
         <v>0</v>
       </c>
       <c r="E427">
-        <v>695000.585</v>
+        <v>590701.3050000001</v>
       </c>
       <c r="F427">
         <v>0</v>
@@ -54172,7 +54172,7 @@
         <v>0</v>
       </c>
       <c r="E428">
-        <v>260855.51</v>
+        <v>0</v>
       </c>
       <c r="F428">
         <v>0</v>
@@ -54416,7 +54416,7 @@
         <v>0</v>
       </c>
       <c r="E430">
-        <v>0</v>
+        <v>37476.37</v>
       </c>
       <c r="F430">
         <v>0</v>
@@ -54529,10 +54529,10 @@
         <v>470</v>
       </c>
       <c r="B431">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C431">
-        <v>0</v>
+        <v>2216.57</v>
       </c>
       <c r="D431">
         <v>0</v>
@@ -54660,7 +54660,7 @@
         <v>0</v>
       </c>
       <c r="E432">
-        <v>77121.74000000001</v>
+        <v>1023983.09</v>
       </c>
       <c r="F432">
         <v>0</v>
@@ -54782,7 +54782,7 @@
         <v>0</v>
       </c>
       <c r="E433">
-        <v>390307.885</v>
+        <v>447671.75</v>
       </c>
       <c r="F433">
         <v>0</v>
@@ -54895,7 +54895,7 @@
         <v>473</v>
       </c>
       <c r="B434">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C434">
         <v>482.6390663355013</v>
@@ -54904,7 +54904,7 @@
         <v>0</v>
       </c>
       <c r="E434">
-        <v>1488.745</v>
+        <v>20133.16</v>
       </c>
       <c r="F434">
         <v>0</v>
@@ -55026,7 +55026,7 @@
         <v>0</v>
       </c>
       <c r="E435">
-        <v>3833153.925</v>
+        <v>988519.73</v>
       </c>
       <c r="F435">
         <v>0</v>
@@ -55139,7 +55139,7 @@
         <v>475</v>
       </c>
       <c r="B436">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C436">
         <v>754.9924336800377</v>
@@ -55148,7 +55148,7 @@
         <v>0</v>
       </c>
       <c r="E436">
-        <v>29820.255</v>
+        <v>204058.91</v>
       </c>
       <c r="F436">
         <v>0</v>
@@ -55270,7 +55270,7 @@
         <v>0</v>
       </c>
       <c r="E437">
-        <v>483223.69</v>
+        <v>291145.11</v>
       </c>
       <c r="F437">
         <v>0</v>
@@ -55383,7 +55383,7 @@
         <v>477</v>
       </c>
       <c r="B438">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C438">
         <v>574.4917005765921</v>
@@ -55392,7 +55392,7 @@
         <v>0</v>
       </c>
       <c r="E438">
-        <v>74156.005</v>
+        <v>153004.95</v>
       </c>
       <c r="F438">
         <v>0</v>
@@ -55505,16 +55505,16 @@
         <v>478</v>
       </c>
       <c r="B439">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C439">
         <v>729.1196658666737</v>
       </c>
       <c r="D439">
-        <v>2500000</v>
+        <v>0</v>
       </c>
       <c r="E439">
-        <v>974658.995</v>
+        <v>2160278.795</v>
       </c>
       <c r="F439">
         <v>0</v>
@@ -55636,7 +55636,7 @@
         <v>190000</v>
       </c>
       <c r="E440">
-        <v>224293.39</v>
+        <v>335060.16</v>
       </c>
       <c r="F440">
         <v>0</v>
@@ -55880,7 +55880,7 @@
         <v>0</v>
       </c>
       <c r="E442">
-        <v>679.985</v>
+        <v>266891.29</v>
       </c>
       <c r="F442">
         <v>0</v>
@@ -56124,7 +56124,7 @@
         <v>0</v>
       </c>
       <c r="E444">
-        <v>7590.435</v>
+        <v>17947.595</v>
       </c>
       <c r="F444">
         <v>0</v>
@@ -56246,7 +56246,7 @@
         <v>0</v>
       </c>
       <c r="E445">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="F445">
         <v>0</v>
@@ -56359,7 +56359,7 @@
         <v>485</v>
       </c>
       <c r="B446">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C446">
         <v>571.453129531788</v>
@@ -56368,7 +56368,7 @@
         <v>0</v>
       </c>
       <c r="E446">
-        <v>19699.99</v>
+        <v>249307.95</v>
       </c>
       <c r="F446">
         <v>0</v>
@@ -56481,16 +56481,16 @@
         <v>486</v>
       </c>
       <c r="B447">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C447">
         <v>729.7808175407341</v>
       </c>
       <c r="D447">
-        <v>2500000</v>
+        <v>0</v>
       </c>
       <c r="E447">
-        <v>303308.07</v>
+        <v>74047.61500000001</v>
       </c>
       <c r="F447">
         <v>0</v>
@@ -56603,7 +56603,7 @@
         <v>487</v>
       </c>
       <c r="B448">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C448">
         <v>1732.587316450496</v>
@@ -56612,7 +56612,7 @@
         <v>0</v>
       </c>
       <c r="E448">
-        <v>189497.375</v>
+        <v>0</v>
       </c>
       <c r="F448">
         <v>0</v>
@@ -56847,7 +56847,7 @@
         <v>489</v>
       </c>
       <c r="B450">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C450">
         <v>579.0880693780265</v>
@@ -56856,7 +56856,7 @@
         <v>0</v>
       </c>
       <c r="E450">
-        <v>560164.77</v>
+        <v>410778.9</v>
       </c>
       <c r="F450">
         <v>0</v>
@@ -56978,7 +56978,7 @@
         <v>0</v>
       </c>
       <c r="E451">
-        <v>35427.47</v>
+        <v>249865.905</v>
       </c>
       <c r="F451">
         <v>0</v>
@@ -57091,7 +57091,7 @@
         <v>491</v>
       </c>
       <c r="B452">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C452">
         <v>731.9993357350996</v>
@@ -57100,7 +57100,7 @@
         <v>0</v>
       </c>
       <c r="E452">
-        <v>610377.925</v>
+        <v>0</v>
       </c>
       <c r="F452">
         <v>0</v>
@@ -57222,7 +57222,7 @@
         <v>0</v>
       </c>
       <c r="E453">
-        <v>435563.065</v>
+        <v>428272.41</v>
       </c>
       <c r="F453">
         <v>0</v>
@@ -57335,7 +57335,7 @@
         <v>493</v>
       </c>
       <c r="B454">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C454">
         <v>517.8609592583078</v>
@@ -57344,7 +57344,7 @@
         <v>0</v>
       </c>
       <c r="E454">
-        <v>242467.145</v>
+        <v>120243.495</v>
       </c>
       <c r="F454">
         <v>0</v>
@@ -57466,7 +57466,7 @@
         <v>0</v>
       </c>
       <c r="E455">
-        <v>38057.575</v>
+        <v>0</v>
       </c>
       <c r="F455">
         <v>0</v>
@@ -57710,7 +57710,7 @@
         <v>0</v>
       </c>
       <c r="E457">
-        <v>39949.73</v>
+        <v>0</v>
       </c>
       <c r="F457">
         <v>0</v>
@@ -57826,13 +57826,13 @@
         <v>0</v>
       </c>
       <c r="C458">
-        <v>0</v>
+        <v>1063.277878861239</v>
       </c>
       <c r="D458">
         <v>0</v>
       </c>
       <c r="E458">
-        <v>404451.065</v>
+        <v>389418.46</v>
       </c>
       <c r="F458">
         <v>0</v>
@@ -57951,10 +57951,10 @@
         <v>6661.86504232374</v>
       </c>
       <c r="D459">
-        <v>240000</v>
+        <v>0</v>
       </c>
       <c r="E459">
-        <v>149020.08</v>
+        <v>274381.28</v>
       </c>
       <c r="F459">
         <v>0</v>
@@ -58067,7 +58067,7 @@
         <v>499</v>
       </c>
       <c r="B460">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C460">
         <v>767.6026452352251</v>
@@ -58076,7 +58076,7 @@
         <v>0</v>
       </c>
       <c r="E460">
-        <v>37288.48</v>
+        <v>175000</v>
       </c>
       <c r="F460">
         <v>0</v>
@@ -58189,7 +58189,7 @@
         <v>500</v>
       </c>
       <c r="B461">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C461">
         <v>1384.519227335143</v>
@@ -58198,7 +58198,7 @@
         <v>0</v>
       </c>
       <c r="E461">
-        <v>197162.995</v>
+        <v>0</v>
       </c>
       <c r="F461">
         <v>0</v>
@@ -58433,7 +58433,7 @@
         <v>502</v>
       </c>
       <c r="B463">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C463">
         <v>441.1376640642927</v>
@@ -58442,7 +58442,7 @@
         <v>0</v>
       </c>
       <c r="E463">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="F463">
         <v>0</v>
@@ -58558,13 +58558,13 @@
         <v>0</v>
       </c>
       <c r="C464">
-        <v>0</v>
+        <v>1404.51</v>
       </c>
       <c r="D464">
         <v>0</v>
       </c>
       <c r="E464">
-        <v>407216.02</v>
+        <v>33861.925</v>
       </c>
       <c r="F464">
         <v>0</v>
@@ -58677,7 +58677,7 @@
         <v>504</v>
       </c>
       <c r="B465">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C465">
         <v>1825.72155898504</v>
@@ -58686,7 +58686,7 @@
         <v>0</v>
       </c>
       <c r="E465">
-        <v>161400.59</v>
+        <v>199143.885</v>
       </c>
       <c r="F465">
         <v>0</v>
@@ -58808,7 +58808,7 @@
         <v>0</v>
       </c>
       <c r="E466">
-        <v>144026.225</v>
+        <v>612609.355</v>
       </c>
       <c r="F466">
         <v>0</v>
@@ -58930,7 +58930,7 @@
         <v>0</v>
       </c>
       <c r="E467">
-        <v>6060.81</v>
+        <v>7376.975</v>
       </c>
       <c r="F467">
         <v>0</v>
@@ -59046,13 +59046,13 @@
         <v>0</v>
       </c>
       <c r="C468">
-        <v>0</v>
+        <v>2631.811984847832</v>
       </c>
       <c r="D468">
         <v>0</v>
       </c>
       <c r="E468">
-        <v>487502.885</v>
+        <v>134374.965</v>
       </c>
       <c r="F468">
         <v>0</v>
@@ -59174,7 +59174,7 @@
         <v>0</v>
       </c>
       <c r="E469">
-        <v>7500</v>
+        <v>28129.405</v>
       </c>
       <c r="F469">
         <v>0</v>
@@ -59296,7 +59296,7 @@
         <v>0</v>
       </c>
       <c r="E470">
-        <v>32603.965</v>
+        <v>0</v>
       </c>
       <c r="F470">
         <v>0</v>
@@ -59540,7 +59540,7 @@
         <v>0</v>
       </c>
       <c r="E472">
-        <v>179449.17</v>
+        <v>235528.23</v>
       </c>
       <c r="F472">
         <v>0</v>
@@ -59653,7 +59653,7 @@
         <v>512</v>
       </c>
       <c r="B473">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C473">
         <v>2781.785595612399</v>
@@ -59778,7 +59778,7 @@
         <v>0</v>
       </c>
       <c r="C474">
-        <v>0</v>
+        <v>856.79</v>
       </c>
       <c r="D474">
         <v>0</v>
@@ -62587,7 +62587,7 @@
         <v>2111.193164269742</v>
       </c>
       <c r="D497">
-        <v>190000</v>
+        <v>0</v>
       </c>
       <c r="E497">
         <v>224293.39</v>
@@ -64170,7 +64170,7 @@
         <v>0</v>
       </c>
       <c r="C510">
-        <v>0</v>
+        <v>1060.229080452468</v>
       </c>
       <c r="D510">
         <v>0</v>
@@ -64780,7 +64780,7 @@
         <v>0</v>
       </c>
       <c r="C515">
-        <v>0</v>
+        <v>941.02</v>
       </c>
       <c r="D515">
         <v>0</v>
@@ -65268,7 +65268,7 @@
         <v>0</v>
       </c>
       <c r="C519">
-        <v>0</v>
+        <v>2694.5225262147</v>
       </c>
       <c r="D519">
         <v>0</v>
@@ -65512,7 +65512,7 @@
         <v>0</v>
       </c>
       <c r="C521">
-        <v>0</v>
+        <v>880.78</v>
       </c>
       <c r="D521">
         <v>0</v>
